--- a/Dictionary347.xlsx
+++ b/Dictionary347.xlsx
@@ -14338,24 +14338,12 @@
     <t>происходит</t>
   </si>
   <si>
-    <t>will manage.</t>
-  </si>
-  <si>
-    <t>справится.</t>
-  </si>
-  <si>
     <t>I will manage.</t>
   </si>
   <si>
     <t>Я справлюсь.</t>
   </si>
   <si>
-    <t>Will be able.</t>
-  </si>
-  <si>
-    <t>Сможет.</t>
-  </si>
-  <si>
     <t>steering wheel</t>
   </si>
   <si>
@@ -16004,6 +15992,18 @@
   </si>
   <si>
     <t>Потребление</t>
+  </si>
+  <si>
+    <t>will be able</t>
+  </si>
+  <si>
+    <t>cможет</t>
+  </si>
+  <si>
+    <t>will manage</t>
+  </si>
+  <si>
+    <t>справится</t>
   </si>
 </sst>
 </file>
@@ -16434,8 +16434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2976"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B409" sqref="B409"/>
+    <sheetView tabSelected="1" topLeftCell="A2912" workbookViewId="0">
+      <selection activeCell="C2922" sqref="C2922"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16492,7 +16492,7 @@
         <v>282</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>5023</v>
+        <v>5019</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="1"/>
@@ -16570,7 +16570,7 @@
         <v>4571</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>5049</v>
+        <v>5045</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="1"/>
@@ -16609,7 +16609,7 @@
         <v>4172</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>4795</v>
+        <v>4791</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
@@ -17009,10 +17009,10 @@
         <v>44</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>5016</v>
+        <v>5012</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>5017</v>
+        <v>5013</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="1"/>
@@ -17360,10 +17360,10 @@
         <v>71</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>4873</v>
+        <v>4869</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>5041</v>
+        <v>5037</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="1"/>
@@ -17389,7 +17389,7 @@
         <v>3855</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>5042</v>
+        <v>5038</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="1"/>
@@ -17399,10 +17399,10 @@
         <v>74</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>4850</v>
+        <v>4846</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>4851</v>
+        <v>4847</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="1"/>
@@ -17467,7 +17467,7 @@
         <v>3679</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>5320</v>
+        <v>5316</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="1"/>
@@ -17477,10 +17477,10 @@
         <v>80</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>5261</v>
+        <v>5257</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>5262</v>
+        <v>5258</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="1"/>
@@ -17558,7 +17558,7 @@
         <v>2513</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>4901</v>
+        <v>4897</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="1"/>
@@ -17607,10 +17607,10 @@
         <v>90</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>5131</v>
+        <v>5127</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>5132</v>
+        <v>5128</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="1"/>
@@ -17620,10 +17620,10 @@
         <v>91</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>5206</v>
+        <v>5202</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>5207</v>
+        <v>5203</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="1"/>
@@ -17633,10 +17633,10 @@
         <v>92</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>4848</v>
+        <v>4844</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>4849</v>
+        <v>4845</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="1"/>
@@ -17646,10 +17646,10 @@
         <v>93</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>5004</v>
+        <v>5000</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>5005</v>
+        <v>5001</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="1"/>
@@ -17659,10 +17659,10 @@
         <v>94</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>5006</v>
+        <v>5002</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>5007</v>
+        <v>5003</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="1"/>
@@ -17672,10 +17672,10 @@
         <v>95</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>5205</v>
+        <v>5201</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>5084</v>
+        <v>5080</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="1"/>
@@ -17750,10 +17750,10 @@
         <v>101</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>5109</v>
+        <v>5105</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>5110</v>
+        <v>5106</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="1"/>
@@ -17961,7 +17961,7 @@
         <v>58</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>5028</v>
+        <v>5024</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="1"/>
@@ -18218,10 +18218,10 @@
         <v>137</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>4815</v>
+        <v>4811</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>4816</v>
+        <v>4812</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="1"/>
@@ -18231,10 +18231,10 @@
         <v>138</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>4817</v>
+        <v>4813</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>4818</v>
+        <v>4814</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="1"/>
@@ -18322,10 +18322,10 @@
         <v>145</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>4988</v>
+        <v>4984</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>4989</v>
+        <v>4985</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="1"/>
@@ -18348,7 +18348,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>5168</v>
+        <v>5164</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>652</v>
@@ -18452,10 +18452,10 @@
         <v>155</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>4955</v>
+        <v>4951</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>4956</v>
+        <v>4952</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="1"/>
@@ -18556,10 +18556,10 @@
         <v>163</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>5325</v>
+        <v>5321</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>5326</v>
+        <v>5322</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="1"/>
@@ -18595,7 +18595,7 @@
         <v>166</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>4814</v>
+        <v>4810</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>1179</v>
@@ -18858,7 +18858,7 @@
         <v>4484</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>4895</v>
+        <v>4891</v>
       </c>
       <c r="D186" s="4"/>
       <c r="E186" s="1"/>
@@ -18933,10 +18933,10 @@
         <v>192</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>5123</v>
+        <v>5119</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>5124</v>
+        <v>5120</v>
       </c>
       <c r="D192" s="4"/>
       <c r="E192" s="1"/>
@@ -19115,10 +19115,10 @@
         <v>206</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>5107</v>
+        <v>5103</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>5108</v>
+        <v>5104</v>
       </c>
       <c r="D206" s="4"/>
       <c r="E206" s="1"/>
@@ -19219,10 +19219,10 @@
         <v>214</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>5096</v>
+        <v>5092</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>5097</v>
+        <v>5093</v>
       </c>
       <c r="D214" s="4"/>
       <c r="E214" s="1"/>
@@ -19287,7 +19287,7 @@
         <v>4610</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>5095</v>
+        <v>5091</v>
       </c>
       <c r="D219" s="4"/>
       <c r="E219" s="1"/>
@@ -19297,10 +19297,10 @@
         <v>220</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>4893</v>
+        <v>4889</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>4894</v>
+        <v>4890</v>
       </c>
       <c r="D220" s="4"/>
       <c r="E220" s="1"/>
@@ -19583,7 +19583,7 @@
         <v>242</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>4784</v>
+        <v>4780</v>
       </c>
       <c r="C242" s="8" t="s">
         <v>2433</v>
@@ -19596,10 +19596,10 @@
         <v>243</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>4793</v>
+        <v>4789</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>4794</v>
+        <v>4790</v>
       </c>
       <c r="D243" s="4"/>
       <c r="E243" s="1"/>
@@ -19648,10 +19648,10 @@
         <v>247</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>4787</v>
+        <v>4783</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>4788</v>
+        <v>4784</v>
       </c>
       <c r="D247" s="4"/>
       <c r="E247" s="1"/>
@@ -19690,7 +19690,7 @@
         <v>2401</v>
       </c>
       <c r="C250" s="9" t="s">
-        <v>4887</v>
+        <v>4883</v>
       </c>
       <c r="D250" s="4"/>
       <c r="E250" s="1"/>
@@ -19794,7 +19794,7 @@
         <v>1861</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>4898</v>
+        <v>4894</v>
       </c>
       <c r="D258" s="4"/>
       <c r="E258" s="1"/>
@@ -19843,10 +19843,10 @@
         <v>262</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>4986</v>
+        <v>4982</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>4987</v>
+        <v>4983</v>
       </c>
       <c r="D262" s="4"/>
       <c r="E262" s="1"/>
@@ -19869,10 +19869,10 @@
         <v>264</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>4920</v>
+        <v>4916</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>4921</v>
+        <v>4917</v>
       </c>
       <c r="D264" s="4"/>
       <c r="E264" s="1"/>
@@ -19882,7 +19882,7 @@
         <v>265</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>5263</v>
+        <v>5259</v>
       </c>
       <c r="C265" s="8" t="s">
         <v>1449</v>
@@ -19960,10 +19960,10 @@
         <v>271</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>4802</v>
+        <v>4798</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>4803</v>
+        <v>4799</v>
       </c>
       <c r="D271" s="4"/>
       <c r="E271" s="1"/>
@@ -20168,10 +20168,10 @@
         <v>287</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>5093</v>
+        <v>5089</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>5094</v>
+        <v>5090</v>
       </c>
       <c r="D287" s="4"/>
       <c r="E287" s="1"/>
@@ -20220,10 +20220,10 @@
         <v>291</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>4899</v>
+        <v>4895</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>4900</v>
+        <v>4896</v>
       </c>
       <c r="D291" s="4"/>
       <c r="E291" s="1"/>
@@ -20337,7 +20337,7 @@
         <v>300</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>4813</v>
+        <v>4809</v>
       </c>
       <c r="C300" s="8" t="s">
         <v>1904</v>
@@ -20350,7 +20350,7 @@
         <v>301</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>5324</v>
+        <v>5320</v>
       </c>
       <c r="C301" s="8" t="s">
         <v>4573</v>
@@ -20428,7 +20428,7 @@
         <v>307</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>5291</v>
+        <v>5287</v>
       </c>
       <c r="C307" s="8" t="s">
         <v>2122</v>
@@ -20662,10 +20662,10 @@
         <v>325</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>5114</v>
+        <v>5110</v>
       </c>
       <c r="C325" s="8" t="s">
-        <v>5115</v>
+        <v>5111</v>
       </c>
       <c r="D325" s="4"/>
       <c r="E325" s="1"/>
@@ -21068,7 +21068,7 @@
         <v>318</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>4783</v>
+        <v>4779</v>
       </c>
       <c r="D356" s="4"/>
       <c r="E356" s="1"/>
@@ -21117,10 +21117,10 @@
         <v>360</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>5058</v>
+        <v>5054</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>5059</v>
+        <v>5055</v>
       </c>
       <c r="D360" s="4"/>
       <c r="E360" s="1"/>
@@ -21185,7 +21185,7 @@
         <v>2630</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>4786</v>
+        <v>4782</v>
       </c>
       <c r="D365" s="4"/>
       <c r="E365" s="1"/>
@@ -21247,10 +21247,10 @@
         <v>370</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>4937</v>
+        <v>4933</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>4938</v>
+        <v>4934</v>
       </c>
       <c r="D370" s="4"/>
       <c r="E370" s="1"/>
@@ -21406,7 +21406,7 @@
         <v>4506</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>5274</v>
+        <v>5270</v>
       </c>
       <c r="D382" s="4"/>
       <c r="E382" s="1"/>
@@ -21494,10 +21494,10 @@
         <v>389</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>5111</v>
+        <v>5107</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>5112</v>
+        <v>5108</v>
       </c>
       <c r="D389" s="4"/>
       <c r="E389" s="1"/>
@@ -21702,10 +21702,10 @@
         <v>405</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>4905</v>
+        <v>4901</v>
       </c>
       <c r="C405" s="9" t="s">
-        <v>4906</v>
+        <v>4902</v>
       </c>
       <c r="D405" s="4"/>
       <c r="E405" s="1"/>
@@ -21780,10 +21780,10 @@
         <v>411</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>4942</v>
+        <v>4938</v>
       </c>
       <c r="C411" s="8" t="s">
-        <v>4943</v>
+        <v>4939</v>
       </c>
       <c r="D411" s="4"/>
       <c r="E411" s="1"/>
@@ -22001,10 +22001,10 @@
         <v>428</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>4810</v>
+        <v>4806</v>
       </c>
       <c r="C428" s="8" t="s">
-        <v>4811</v>
+        <v>4807</v>
       </c>
       <c r="D428" s="4"/>
       <c r="E428" s="1"/>
@@ -22092,10 +22092,10 @@
         <v>435</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>5014</v>
+        <v>5010</v>
       </c>
       <c r="C435" s="8" t="s">
-        <v>5015</v>
+        <v>5011</v>
       </c>
       <c r="D435" s="4"/>
       <c r="E435" s="1"/>
@@ -22329,7 +22329,7 @@
         <v>2075</v>
       </c>
       <c r="C453" s="8" t="s">
-        <v>5036</v>
+        <v>5032</v>
       </c>
       <c r="D453" s="4"/>
       <c r="E453" s="1"/>
@@ -22339,10 +22339,10 @@
         <v>454</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>4781</v>
+        <v>4777</v>
       </c>
       <c r="C454" s="9" t="s">
-        <v>4782</v>
+        <v>4778</v>
       </c>
       <c r="D454" s="4"/>
       <c r="E454" s="1"/>
@@ -22430,10 +22430,10 @@
         <v>461</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>5179</v>
+        <v>5175</v>
       </c>
       <c r="C461" s="8" t="s">
-        <v>5180</v>
+        <v>5176</v>
       </c>
       <c r="D461" s="4"/>
       <c r="E461" s="1"/>
@@ -22781,10 +22781,10 @@
         <v>488</v>
       </c>
       <c r="B488" s="8" t="s">
-        <v>4947</v>
+        <v>4943</v>
       </c>
       <c r="C488" s="8" t="s">
-        <v>4948</v>
+        <v>4944</v>
       </c>
       <c r="D488" s="4"/>
       <c r="E488" s="1"/>
@@ -22833,7 +22833,7 @@
         <v>492</v>
       </c>
       <c r="B492" s="8" t="s">
-        <v>4946</v>
+        <v>4942</v>
       </c>
       <c r="C492" s="8" t="s">
         <v>527</v>
@@ -22885,7 +22885,7 @@
         <v>496</v>
       </c>
       <c r="B496" s="8" t="s">
-        <v>4979</v>
+        <v>4975</v>
       </c>
       <c r="C496" s="8" t="s">
         <v>3213</v>
@@ -23314,10 +23314,10 @@
         <v>529</v>
       </c>
       <c r="B529" s="8" t="s">
-        <v>5188</v>
+        <v>5184</v>
       </c>
       <c r="C529" s="8" t="s">
-        <v>5189</v>
+        <v>5185</v>
       </c>
       <c r="D529" s="4"/>
       <c r="E529" s="1"/>
@@ -23548,10 +23548,10 @@
         <v>547</v>
       </c>
       <c r="B547" s="8" t="s">
-        <v>5061</v>
+        <v>5057</v>
       </c>
       <c r="C547" s="8" t="s">
-        <v>5062</v>
+        <v>5058</v>
       </c>
       <c r="D547" s="4"/>
       <c r="E547" s="1"/>
@@ -23561,10 +23561,10 @@
         <v>548</v>
       </c>
       <c r="B548" s="8" t="s">
-        <v>5116</v>
+        <v>5112</v>
       </c>
       <c r="C548" s="8" t="s">
-        <v>5117</v>
+        <v>5113</v>
       </c>
       <c r="D548" s="4"/>
       <c r="E548" s="1"/>
@@ -23678,10 +23678,10 @@
         <v>557</v>
       </c>
       <c r="B557" s="8" t="s">
-        <v>4959</v>
+        <v>4955</v>
       </c>
       <c r="C557" s="8" t="s">
-        <v>4960</v>
+        <v>4956</v>
       </c>
       <c r="D557" s="4"/>
       <c r="E557" s="1"/>
@@ -23782,10 +23782,10 @@
         <v>565</v>
       </c>
       <c r="B565" s="8" t="s">
-        <v>5063</v>
+        <v>5059</v>
       </c>
       <c r="C565" s="8" t="s">
-        <v>5064</v>
+        <v>5060</v>
       </c>
       <c r="D565" s="4"/>
       <c r="E565" s="1"/>
@@ -23824,7 +23824,7 @@
         <v>4069</v>
       </c>
       <c r="C568" s="8" t="s">
-        <v>4804</v>
+        <v>4800</v>
       </c>
       <c r="D568" s="4"/>
       <c r="E568" s="1"/>
@@ -23863,7 +23863,7 @@
         <v>4214</v>
       </c>
       <c r="C571" s="8" t="s">
-        <v>5025</v>
+        <v>5021</v>
       </c>
       <c r="D571" s="4"/>
       <c r="E571" s="1"/>
@@ -23886,10 +23886,10 @@
         <v>573</v>
       </c>
       <c r="B573" s="8" t="s">
-        <v>5184</v>
+        <v>5180</v>
       </c>
       <c r="C573" s="8" t="s">
-        <v>5185</v>
+        <v>5181</v>
       </c>
       <c r="D573" s="4"/>
       <c r="E573" s="1"/>
@@ -23993,7 +23993,7 @@
         <v>1585</v>
       </c>
       <c r="C581" s="8" t="s">
-        <v>5148</v>
+        <v>5144</v>
       </c>
       <c r="D581" s="4"/>
       <c r="E581" s="1"/>
@@ -24120,10 +24120,10 @@
         <v>591</v>
       </c>
       <c r="B591" s="8" t="s">
-        <v>4845</v>
+        <v>4841</v>
       </c>
       <c r="C591" s="8" t="s">
-        <v>4846</v>
+        <v>4842</v>
       </c>
       <c r="D591" s="4"/>
       <c r="E591" s="1"/>
@@ -24266,7 +24266,7 @@
         <v>2719</v>
       </c>
       <c r="C602" s="8" t="s">
-        <v>4824</v>
+        <v>4820</v>
       </c>
       <c r="D602" s="4"/>
       <c r="E602" s="1"/>
@@ -24276,10 +24276,10 @@
         <v>603</v>
       </c>
       <c r="B603" s="8" t="s">
-        <v>4907</v>
+        <v>4903</v>
       </c>
       <c r="C603" s="8" t="s">
-        <v>4908</v>
+        <v>4904</v>
       </c>
       <c r="D603" s="4"/>
       <c r="E603" s="1"/>
@@ -24526,7 +24526,7 @@
         <v>181</v>
       </c>
       <c r="C622" s="8" t="s">
-        <v>5040</v>
+        <v>5036</v>
       </c>
       <c r="D622" s="4"/>
       <c r="E622" s="1"/>
@@ -24640,10 +24640,10 @@
         <v>631</v>
       </c>
       <c r="B631" s="8" t="s">
-        <v>5327</v>
+        <v>5323</v>
       </c>
       <c r="C631" s="8" t="s">
-        <v>5328</v>
+        <v>5324</v>
       </c>
       <c r="D631" s="4"/>
       <c r="E631" s="1"/>
@@ -24679,10 +24679,10 @@
         <v>634</v>
       </c>
       <c r="B634" s="8" t="s">
-        <v>5065</v>
+        <v>5061</v>
       </c>
       <c r="C634" s="8" t="s">
-        <v>5066</v>
+        <v>5062</v>
       </c>
       <c r="D634" s="4"/>
       <c r="E634" s="1"/>
@@ -24770,10 +24770,10 @@
         <v>641</v>
       </c>
       <c r="B641" s="8" t="s">
-        <v>4836</v>
+        <v>4832</v>
       </c>
       <c r="C641" s="8" t="s">
-        <v>4837</v>
+        <v>4833</v>
       </c>
       <c r="D641" s="4"/>
       <c r="E641" s="1"/>
@@ -24812,7 +24812,7 @@
         <v>2265</v>
       </c>
       <c r="C644" s="8" t="s">
-        <v>5081</v>
+        <v>5077</v>
       </c>
       <c r="D644" s="4"/>
       <c r="E644" s="1"/>
@@ -24939,10 +24939,10 @@
         <v>654</v>
       </c>
       <c r="B654" s="8" t="s">
-        <v>5182</v>
+        <v>5178</v>
       </c>
       <c r="C654" s="9" t="s">
-        <v>5183</v>
+        <v>5179</v>
       </c>
       <c r="D654" s="4"/>
       <c r="E654" s="1"/>
@@ -25095,10 +25095,10 @@
         <v>666</v>
       </c>
       <c r="B666" s="8" t="s">
-        <v>5318</v>
+        <v>5314</v>
       </c>
       <c r="C666" s="9" t="s">
-        <v>5319</v>
+        <v>5315</v>
       </c>
       <c r="D666" s="4"/>
       <c r="E666" s="1"/>
@@ -25446,10 +25446,10 @@
         <v>693</v>
       </c>
       <c r="B693" s="8" t="s">
-        <v>5067</v>
+        <v>5063</v>
       </c>
       <c r="C693" s="8" t="s">
-        <v>5068</v>
+        <v>5064</v>
       </c>
       <c r="D693" s="4"/>
       <c r="E693" s="1"/>
@@ -25459,10 +25459,10 @@
         <v>694</v>
       </c>
       <c r="B694" s="8" t="s">
-        <v>5045</v>
+        <v>5041</v>
       </c>
       <c r="C694" s="8" t="s">
-        <v>5046</v>
+        <v>5042</v>
       </c>
       <c r="D694" s="4"/>
       <c r="E694" s="1"/>
@@ -25511,10 +25511,10 @@
         <v>698</v>
       </c>
       <c r="B698" s="8" t="s">
-        <v>5303</v>
+        <v>5299</v>
       </c>
       <c r="C698" s="8" t="s">
-        <v>5304</v>
+        <v>5300</v>
       </c>
       <c r="D698" s="4"/>
       <c r="E698" s="1"/>
@@ -25537,10 +25537,10 @@
         <v>700</v>
       </c>
       <c r="B700" s="8" t="s">
-        <v>5270</v>
+        <v>5266</v>
       </c>
       <c r="C700" s="8" t="s">
-        <v>5271</v>
+        <v>5267</v>
       </c>
       <c r="D700" s="4"/>
       <c r="E700" s="1"/>
@@ -25641,10 +25641,10 @@
         <v>708</v>
       </c>
       <c r="B708" s="8" t="s">
-        <v>4916</v>
+        <v>4912</v>
       </c>
       <c r="C708" s="8" t="s">
-        <v>4917</v>
+        <v>4913</v>
       </c>
       <c r="D708" s="4"/>
       <c r="E708" s="1"/>
@@ -25696,7 +25696,7 @@
         <v>3047</v>
       </c>
       <c r="C712" s="8" t="s">
-        <v>4997</v>
+        <v>4993</v>
       </c>
       <c r="D712" s="4"/>
       <c r="E712" s="1"/>
@@ -25745,10 +25745,10 @@
         <v>716</v>
       </c>
       <c r="B716" s="8" t="s">
-        <v>5169</v>
+        <v>5165</v>
       </c>
       <c r="C716" s="9" t="s">
-        <v>5170</v>
+        <v>5166</v>
       </c>
       <c r="D716" s="4"/>
       <c r="E716" s="1"/>
@@ -25810,10 +25810,10 @@
         <v>721</v>
       </c>
       <c r="B721" s="8" t="s">
-        <v>4981</v>
+        <v>4977</v>
       </c>
       <c r="C721" s="8" t="s">
-        <v>4982</v>
+        <v>4978</v>
       </c>
       <c r="D721" s="4"/>
       <c r="E721" s="1"/>
@@ -25862,10 +25862,10 @@
         <v>725</v>
       </c>
       <c r="B725" s="8" t="s">
-        <v>5139</v>
+        <v>5135</v>
       </c>
       <c r="C725" s="8" t="s">
-        <v>5140</v>
+        <v>5136</v>
       </c>
       <c r="D725" s="4"/>
       <c r="E725" s="1"/>
@@ -25927,10 +25927,10 @@
         <v>730</v>
       </c>
       <c r="B730" s="8" t="s">
-        <v>5077</v>
+        <v>5073</v>
       </c>
       <c r="C730" s="9" t="s">
-        <v>5078</v>
+        <v>5074</v>
       </c>
       <c r="D730" s="4"/>
       <c r="E730" s="1"/>
@@ -25940,7 +25940,7 @@
         <v>731</v>
       </c>
       <c r="B731" s="8" t="s">
-        <v>5257</v>
+        <v>5253</v>
       </c>
       <c r="C731" s="8" t="s">
         <v>1103</v>
@@ -26125,7 +26125,7 @@
         <v>3877</v>
       </c>
       <c r="C745" s="8" t="s">
-        <v>4992</v>
+        <v>4988</v>
       </c>
       <c r="D745" s="4"/>
       <c r="E745" s="1"/>
@@ -26135,10 +26135,10 @@
         <v>746</v>
       </c>
       <c r="B746" s="8" t="s">
-        <v>5294</v>
+        <v>5290</v>
       </c>
       <c r="C746" s="8" t="s">
-        <v>5295</v>
+        <v>5291</v>
       </c>
       <c r="D746" s="4"/>
       <c r="E746" s="1"/>
@@ -26226,10 +26226,10 @@
         <v>753</v>
       </c>
       <c r="B753" s="8" t="s">
-        <v>4870</v>
+        <v>4866</v>
       </c>
       <c r="C753" s="8" t="s">
-        <v>4871</v>
+        <v>4867</v>
       </c>
       <c r="D753" s="4"/>
       <c r="E753" s="1"/>
@@ -26330,7 +26330,7 @@
         <v>761</v>
       </c>
       <c r="B761" s="8" t="s">
-        <v>4797</v>
+        <v>4793</v>
       </c>
       <c r="C761" s="8" t="s">
         <v>149</v>
@@ -26356,10 +26356,10 @@
         <v>763</v>
       </c>
       <c r="B763" s="8" t="s">
-        <v>5242</v>
+        <v>5238</v>
       </c>
       <c r="C763" s="8" t="s">
-        <v>5243</v>
+        <v>5239</v>
       </c>
       <c r="D763" s="4"/>
       <c r="E763" s="1"/>
@@ -26447,10 +26447,10 @@
         <v>770</v>
       </c>
       <c r="B770" s="8" t="s">
-        <v>4866</v>
+        <v>4862</v>
       </c>
       <c r="C770" s="9" t="s">
-        <v>4867</v>
+        <v>4863</v>
       </c>
       <c r="D770" s="4"/>
       <c r="E770" s="1"/>
@@ -26489,7 +26489,7 @@
         <v>3915</v>
       </c>
       <c r="C773" s="8" t="s">
-        <v>4892</v>
+        <v>4888</v>
       </c>
       <c r="D773" s="4"/>
       <c r="E773" s="1"/>
@@ -26499,10 +26499,10 @@
         <v>774</v>
       </c>
       <c r="B774" s="8" t="s">
-        <v>4888</v>
+        <v>4884</v>
       </c>
       <c r="C774" s="8" t="s">
-        <v>4889</v>
+        <v>4885</v>
       </c>
       <c r="D774" s="4"/>
       <c r="E774" s="1"/>
@@ -26606,7 +26606,7 @@
         <v>3863</v>
       </c>
       <c r="C782" s="8" t="s">
-        <v>5020</v>
+        <v>5016</v>
       </c>
       <c r="D782" s="4"/>
       <c r="E782" s="1"/>
@@ -26616,10 +26616,10 @@
         <v>783</v>
       </c>
       <c r="B783" s="8" t="s">
-        <v>5098</v>
+        <v>5094</v>
       </c>
       <c r="C783" s="8" t="s">
-        <v>5020</v>
+        <v>5016</v>
       </c>
       <c r="D783" s="4"/>
       <c r="E783" s="1"/>
@@ -26707,10 +26707,10 @@
         <v>790</v>
       </c>
       <c r="B790" s="8" t="s">
-        <v>5195</v>
+        <v>5191</v>
       </c>
       <c r="C790" s="8" t="s">
-        <v>5196</v>
+        <v>5192</v>
       </c>
       <c r="D790" s="4"/>
       <c r="E790" s="1"/>
@@ -26746,10 +26746,10 @@
         <v>793</v>
       </c>
       <c r="B793" s="8" t="s">
-        <v>4825</v>
+        <v>4821</v>
       </c>
       <c r="C793" s="8" t="s">
-        <v>4826</v>
+        <v>4822</v>
       </c>
       <c r="D793" s="4"/>
       <c r="E793" s="1"/>
@@ -26889,10 +26889,10 @@
         <v>804</v>
       </c>
       <c r="B804" s="8" t="s">
-        <v>5119</v>
+        <v>5115</v>
       </c>
       <c r="C804" s="8" t="s">
-        <v>5120</v>
+        <v>5116</v>
       </c>
       <c r="D804" s="4"/>
       <c r="E804" s="1"/>
@@ -27152,7 +27152,7 @@
         <v>3823</v>
       </c>
       <c r="C824" s="8" t="s">
-        <v>5102</v>
+        <v>5098</v>
       </c>
       <c r="D824" s="4"/>
       <c r="E824" s="1"/>
@@ -27204,7 +27204,7 @@
         <v>4320</v>
       </c>
       <c r="C828" s="9" t="s">
-        <v>5223</v>
+        <v>5219</v>
       </c>
       <c r="D828" s="4"/>
       <c r="E828" s="1"/>
@@ -27266,7 +27266,7 @@
         <v>833</v>
       </c>
       <c r="B833" s="8" t="s">
-        <v>5181</v>
+        <v>5177</v>
       </c>
       <c r="C833" s="8" t="s">
         <v>1472</v>
@@ -27529,7 +27529,7 @@
         <v>2353</v>
       </c>
       <c r="C853" s="8" t="s">
-        <v>4911</v>
+        <v>4907</v>
       </c>
       <c r="D853" s="4"/>
       <c r="E853" s="1"/>
@@ -27971,7 +27971,7 @@
         <v>2564</v>
       </c>
       <c r="C887" s="8" t="s">
-        <v>5323</v>
+        <v>5319</v>
       </c>
       <c r="D887" s="4"/>
       <c r="E887" s="1"/>
@@ -28137,10 +28137,10 @@
         <v>900</v>
       </c>
       <c r="B900" s="8" t="s">
-        <v>5275</v>
+        <v>5271</v>
       </c>
       <c r="C900" s="8" t="s">
-        <v>5276</v>
+        <v>5272</v>
       </c>
       <c r="D900" s="4"/>
       <c r="E900" s="1"/>
@@ -28163,10 +28163,10 @@
         <v>902</v>
       </c>
       <c r="B902" s="8" t="s">
-        <v>5237</v>
+        <v>5233</v>
       </c>
       <c r="C902" s="8" t="s">
-        <v>5238</v>
+        <v>5234</v>
       </c>
       <c r="D902" s="4"/>
       <c r="E902" s="1"/>
@@ -28228,10 +28228,10 @@
         <v>907</v>
       </c>
       <c r="B907" s="8" t="s">
-        <v>5087</v>
+        <v>5083</v>
       </c>
       <c r="C907" s="8" t="s">
-        <v>5088</v>
+        <v>5084</v>
       </c>
       <c r="D907" s="4"/>
       <c r="E907" s="1"/>
@@ -28595,7 +28595,7 @@
         <v>3573</v>
       </c>
       <c r="C935" s="8" t="s">
-        <v>4980</v>
+        <v>4976</v>
       </c>
       <c r="D935" s="4"/>
       <c r="E935" s="1"/>
@@ -28904,10 +28904,10 @@
         <v>959</v>
       </c>
       <c r="B959" s="8" t="s">
-        <v>5224</v>
+        <v>5220</v>
       </c>
       <c r="C959" s="8" t="s">
-        <v>5225</v>
+        <v>5221</v>
       </c>
       <c r="D959" s="4"/>
       <c r="E959" s="1"/>
@@ -28969,10 +28969,10 @@
         <v>964</v>
       </c>
       <c r="B964" s="8" t="s">
-        <v>5125</v>
+        <v>5121</v>
       </c>
       <c r="C964" s="8" t="s">
-        <v>5126</v>
+        <v>5122</v>
       </c>
       <c r="D964" s="4"/>
       <c r="E964" s="1"/>
@@ -29011,7 +29011,7 @@
         <v>2424</v>
       </c>
       <c r="C967" s="9" t="s">
-        <v>5076</v>
+        <v>5072</v>
       </c>
       <c r="D967" s="4"/>
       <c r="E967" s="1"/>
@@ -29177,10 +29177,10 @@
         <v>980</v>
       </c>
       <c r="B980" s="8" t="s">
-        <v>4855</v>
+        <v>4851</v>
       </c>
       <c r="C980" s="9" t="s">
-        <v>4856</v>
+        <v>4852</v>
       </c>
       <c r="D980" s="4"/>
       <c r="E980" s="1"/>
@@ -29255,7 +29255,7 @@
         <v>986</v>
       </c>
       <c r="B986" s="8" t="s">
-        <v>5073</v>
+        <v>5069</v>
       </c>
       <c r="C986" s="8" t="s">
         <v>3932</v>
@@ -29349,7 +29349,7 @@
         <v>1759</v>
       </c>
       <c r="C993" s="8" t="s">
-        <v>5128</v>
+        <v>5124</v>
       </c>
       <c r="D993" s="4"/>
       <c r="E993" s="1"/>
@@ -29463,10 +29463,10 @@
         <v>1002</v>
       </c>
       <c r="B1002" s="8" t="s">
-        <v>4970</v>
+        <v>4966</v>
       </c>
       <c r="C1002" s="8" t="s">
-        <v>4971</v>
+        <v>4967</v>
       </c>
       <c r="D1002" s="4"/>
       <c r="E1002" s="1"/>
@@ -29502,10 +29502,10 @@
         <v>1005</v>
       </c>
       <c r="B1005" s="8" t="s">
-        <v>4827</v>
+        <v>4823</v>
       </c>
       <c r="C1005" s="8" t="s">
-        <v>4828</v>
+        <v>4824</v>
       </c>
       <c r="D1005" s="4"/>
       <c r="E1005" s="1"/>
@@ -29609,7 +29609,7 @@
         <v>4634</v>
       </c>
       <c r="C1013" s="8" t="s">
-        <v>5298</v>
+        <v>5294</v>
       </c>
       <c r="D1013" s="4"/>
       <c r="E1013" s="1"/>
@@ -29671,10 +29671,10 @@
         <v>1018</v>
       </c>
       <c r="B1018" s="8" t="s">
-        <v>5212</v>
+        <v>5208</v>
       </c>
       <c r="C1018" s="8" t="s">
-        <v>5213</v>
+        <v>5209</v>
       </c>
       <c r="D1018" s="4"/>
       <c r="E1018" s="1"/>
@@ -29723,10 +29723,10 @@
         <v>1022</v>
       </c>
       <c r="B1022" s="8" t="s">
-        <v>5034</v>
+        <v>5030</v>
       </c>
       <c r="C1022" s="9" t="s">
-        <v>5035</v>
+        <v>5031</v>
       </c>
       <c r="D1022" s="4"/>
       <c r="E1022" s="1"/>
@@ -29775,7 +29775,7 @@
         <v>1026</v>
       </c>
       <c r="B1026" s="8" t="s">
-        <v>5121</v>
+        <v>5117</v>
       </c>
       <c r="C1026" s="8" t="s">
         <v>208</v>
@@ -29960,7 +29960,7 @@
         <v>1871</v>
       </c>
       <c r="C1040" s="8" t="s">
-        <v>5218</v>
+        <v>5214</v>
       </c>
       <c r="D1040" s="4"/>
       <c r="E1040" s="1"/>
@@ -30009,10 +30009,10 @@
         <v>1044</v>
       </c>
       <c r="B1044" s="8" t="s">
-        <v>5018</v>
+        <v>5014</v>
       </c>
       <c r="C1044" s="8" t="s">
-        <v>5019</v>
+        <v>5015</v>
       </c>
       <c r="D1044" s="4"/>
       <c r="E1044" s="1"/>
@@ -30298,7 +30298,7 @@
         <v>4517</v>
       </c>
       <c r="C1066" s="8" t="s">
-        <v>5118</v>
+        <v>5114</v>
       </c>
       <c r="D1066" s="4"/>
       <c r="E1066" s="1"/>
@@ -30425,10 +30425,10 @@
         <v>1076</v>
       </c>
       <c r="B1076" s="8" t="s">
-        <v>5054</v>
+        <v>5050</v>
       </c>
       <c r="C1076" s="8" t="s">
-        <v>5055</v>
+        <v>5051</v>
       </c>
       <c r="D1076" s="4"/>
       <c r="E1076" s="1"/>
@@ -30464,10 +30464,10 @@
         <v>1079</v>
       </c>
       <c r="B1079" s="8" t="s">
-        <v>5193</v>
+        <v>5189</v>
       </c>
       <c r="C1079" s="9" t="s">
-        <v>5194</v>
+        <v>5190</v>
       </c>
       <c r="D1079" s="4"/>
       <c r="E1079" s="1"/>
@@ -30802,10 +30802,10 @@
         <v>1105</v>
       </c>
       <c r="B1105" s="8" t="s">
-        <v>5091</v>
+        <v>5087</v>
       </c>
       <c r="C1105" s="8" t="s">
-        <v>5092</v>
+        <v>5088</v>
       </c>
       <c r="D1105" s="4"/>
       <c r="E1105" s="1"/>
@@ -30854,10 +30854,10 @@
         <v>1109</v>
       </c>
       <c r="B1109" s="8" t="s">
-        <v>5254</v>
+        <v>5250</v>
       </c>
       <c r="C1109" s="8" t="s">
-        <v>5255</v>
+        <v>5251</v>
       </c>
       <c r="D1109" s="4"/>
       <c r="E1109" s="1"/>
@@ -30867,10 +30867,10 @@
         <v>1110</v>
       </c>
       <c r="B1110" s="8" t="s">
-        <v>5278</v>
+        <v>5274</v>
       </c>
       <c r="C1110" s="8" t="s">
-        <v>5279</v>
+        <v>5275</v>
       </c>
       <c r="D1110" s="4"/>
       <c r="E1110" s="1"/>
@@ -31088,10 +31088,10 @@
         <v>1127</v>
       </c>
       <c r="B1127" s="8" t="s">
-        <v>4965</v>
+        <v>4961</v>
       </c>
       <c r="C1127" s="8" t="s">
-        <v>4966</v>
+        <v>4962</v>
       </c>
       <c r="D1127" s="4"/>
       <c r="E1127" s="1"/>
@@ -31127,10 +31127,10 @@
         <v>1130</v>
       </c>
       <c r="B1130" s="8" t="s">
-        <v>4974</v>
+        <v>4970</v>
       </c>
       <c r="C1130" s="8" t="s">
-        <v>4975</v>
+        <v>4971</v>
       </c>
       <c r="D1130" s="4"/>
       <c r="E1130" s="1"/>
@@ -31218,7 +31218,7 @@
         <v>1137</v>
       </c>
       <c r="B1137" s="8" t="s">
-        <v>5050</v>
+        <v>5046</v>
       </c>
       <c r="C1137" s="8" t="s">
         <v>2046</v>
@@ -31387,7 +31387,7 @@
         <v>1150</v>
       </c>
       <c r="B1150" s="8" t="s">
-        <v>5190</v>
+        <v>5186</v>
       </c>
       <c r="C1150" s="8" t="s">
         <v>1923</v>
@@ -31530,10 +31530,10 @@
         <v>1161</v>
       </c>
       <c r="B1161" s="8" t="s">
-        <v>4929</v>
+        <v>4925</v>
       </c>
       <c r="C1161" s="8" t="s">
-        <v>4930</v>
+        <v>4926</v>
       </c>
       <c r="D1161" s="4"/>
       <c r="E1161" s="1"/>
@@ -31556,7 +31556,7 @@
         <v>1163</v>
       </c>
       <c r="B1163" s="8" t="s">
-        <v>4874</v>
+        <v>4870</v>
       </c>
       <c r="C1163" s="8" t="s">
         <v>636</v>
@@ -31595,10 +31595,10 @@
         <v>1166</v>
       </c>
       <c r="B1166" s="8" t="s">
-        <v>4880</v>
+        <v>4876</v>
       </c>
       <c r="C1166" s="8" t="s">
-        <v>4881</v>
+        <v>4877</v>
       </c>
       <c r="D1166" s="4"/>
       <c r="E1166" s="1"/>
@@ -31634,10 +31634,10 @@
         <v>1169</v>
       </c>
       <c r="B1169" s="8" t="s">
-        <v>4972</v>
+        <v>4968</v>
       </c>
       <c r="C1169" s="8" t="s">
-        <v>4973</v>
+        <v>4969</v>
       </c>
       <c r="D1169" s="4"/>
       <c r="E1169" s="1"/>
@@ -31712,10 +31712,10 @@
         <v>1175</v>
       </c>
       <c r="B1175" s="8" t="s">
-        <v>5157</v>
+        <v>5153</v>
       </c>
       <c r="C1175" s="8" t="s">
-        <v>5158</v>
+        <v>5154</v>
       </c>
       <c r="D1175" s="4"/>
       <c r="E1175" s="1"/>
@@ -31803,10 +31803,10 @@
         <v>1182</v>
       </c>
       <c r="B1182" s="8" t="s">
-        <v>5047</v>
+        <v>5043</v>
       </c>
       <c r="C1182" s="8" t="s">
-        <v>5048</v>
+        <v>5044</v>
       </c>
       <c r="D1182" s="4"/>
       <c r="E1182" s="1"/>
@@ -31907,10 +31907,10 @@
         <v>1190</v>
       </c>
       <c r="B1190" s="8" t="s">
-        <v>4859</v>
+        <v>4855</v>
       </c>
       <c r="C1190" s="8" t="s">
-        <v>4860</v>
+        <v>4856</v>
       </c>
       <c r="D1190" s="4"/>
       <c r="E1190" s="1"/>
@@ -31920,10 +31920,10 @@
         <v>1191</v>
       </c>
       <c r="B1191" s="8" t="s">
-        <v>4834</v>
+        <v>4830</v>
       </c>
       <c r="C1191" s="8" t="s">
-        <v>4835</v>
+        <v>4831</v>
       </c>
       <c r="D1191" s="4"/>
       <c r="E1191" s="1"/>
@@ -31949,7 +31949,7 @@
         <v>3891</v>
       </c>
       <c r="C1193" s="8" t="s">
-        <v>4854</v>
+        <v>4850</v>
       </c>
       <c r="D1193" s="4"/>
       <c r="E1193" s="1"/>
@@ -32024,7 +32024,7 @@
         <v>1199</v>
       </c>
       <c r="B1199" s="8" t="s">
-        <v>5053</v>
+        <v>5049</v>
       </c>
       <c r="C1199" s="8" t="s">
         <v>4338</v>
@@ -32050,10 +32050,10 @@
         <v>1201</v>
       </c>
       <c r="B1201" s="8" t="s">
-        <v>4838</v>
+        <v>4834</v>
       </c>
       <c r="C1201" s="8" t="s">
-        <v>4839</v>
+        <v>4835</v>
       </c>
       <c r="D1201" s="4"/>
       <c r="E1201" s="1"/>
@@ -32092,7 +32092,7 @@
         <v>2906</v>
       </c>
       <c r="C1204" s="8" t="s">
-        <v>5234</v>
+        <v>5230</v>
       </c>
       <c r="D1204" s="4"/>
       <c r="E1204" s="1"/>
@@ -32115,10 +32115,10 @@
         <v>1206</v>
       </c>
       <c r="B1206" s="8" t="s">
-        <v>5038</v>
+        <v>5034</v>
       </c>
       <c r="C1206" s="8" t="s">
-        <v>5039</v>
+        <v>5035</v>
       </c>
       <c r="D1206" s="4"/>
       <c r="E1206" s="1"/>
@@ -32427,7 +32427,7 @@
         <v>1230</v>
       </c>
       <c r="B1230" s="8" t="s">
-        <v>5287</v>
+        <v>5283</v>
       </c>
       <c r="C1230" s="8" t="s">
         <v>4399</v>
@@ -32453,10 +32453,10 @@
         <v>1232</v>
       </c>
       <c r="B1232" s="8" t="s">
-        <v>5129</v>
+        <v>5125</v>
       </c>
       <c r="C1232" s="8" t="s">
-        <v>5130</v>
+        <v>5126</v>
       </c>
       <c r="D1232" s="4"/>
       <c r="E1232" s="1"/>
@@ -32687,10 +32687,10 @@
         <v>1250</v>
       </c>
       <c r="B1250" s="8" t="s">
-        <v>4996</v>
+        <v>4992</v>
       </c>
       <c r="C1250" s="8" t="s">
-        <v>5060</v>
+        <v>5056</v>
       </c>
       <c r="D1250" s="4"/>
       <c r="E1250" s="1"/>
@@ -32778,10 +32778,10 @@
         <v>1257</v>
       </c>
       <c r="B1257" s="8" t="s">
-        <v>5026</v>
+        <v>5022</v>
       </c>
       <c r="C1257" s="8" t="s">
-        <v>5027</v>
+        <v>5023</v>
       </c>
       <c r="D1257" s="4"/>
       <c r="E1257" s="1"/>
@@ -32804,10 +32804,10 @@
         <v>1259</v>
       </c>
       <c r="B1259" s="8" t="s">
-        <v>5186</v>
+        <v>5182</v>
       </c>
       <c r="C1259" s="9" t="s">
-        <v>5187</v>
+        <v>5183</v>
       </c>
       <c r="D1259" s="4"/>
       <c r="E1259" s="1"/>
@@ -32856,10 +32856,10 @@
         <v>1263</v>
       </c>
       <c r="B1263" s="8" t="s">
-        <v>4940</v>
+        <v>4936</v>
       </c>
       <c r="C1263" s="8" t="s">
-        <v>4941</v>
+        <v>4937</v>
       </c>
       <c r="D1263" s="4"/>
       <c r="E1263" s="1"/>
@@ -32869,10 +32869,10 @@
         <v>1264</v>
       </c>
       <c r="B1264" s="8" t="s">
-        <v>5113</v>
+        <v>5109</v>
       </c>
       <c r="C1264" s="8" t="s">
-        <v>4941</v>
+        <v>4937</v>
       </c>
       <c r="D1264" s="4"/>
       <c r="E1264" s="1"/>
@@ -33259,10 +33259,10 @@
         <v>1294</v>
       </c>
       <c r="B1294" s="8" t="s">
-        <v>5321</v>
+        <v>5317</v>
       </c>
       <c r="C1294" s="8" t="s">
-        <v>5322</v>
+        <v>5318</v>
       </c>
       <c r="D1294" s="4"/>
       <c r="E1294" s="1"/>
@@ -33402,10 +33402,10 @@
         <v>1305</v>
       </c>
       <c r="B1305" s="8" t="s">
-        <v>5210</v>
+        <v>5206</v>
       </c>
       <c r="C1305" s="8" t="s">
-        <v>5211</v>
+        <v>5207</v>
       </c>
       <c r="D1305" s="4"/>
       <c r="E1305" s="1"/>
@@ -33470,7 +33470,7 @@
         <v>2839</v>
       </c>
       <c r="C1310" s="8" t="s">
-        <v>4931</v>
+        <v>4927</v>
       </c>
       <c r="D1310" s="4"/>
       <c r="E1310" s="1"/>
@@ -33896,10 +33896,10 @@
         <v>1343</v>
       </c>
       <c r="B1343" s="8" t="s">
-        <v>5085</v>
+        <v>5081</v>
       </c>
       <c r="C1343" s="8" t="s">
-        <v>5086</v>
+        <v>5082</v>
       </c>
       <c r="D1343" s="4"/>
       <c r="E1343" s="1"/>
@@ -34156,10 +34156,10 @@
         <v>1363</v>
       </c>
       <c r="B1363" s="8" t="s">
-        <v>5208</v>
+        <v>5204</v>
       </c>
       <c r="C1363" s="9" t="s">
-        <v>5209</v>
+        <v>5205</v>
       </c>
       <c r="D1363" s="4"/>
       <c r="E1363" s="1"/>
@@ -34182,7 +34182,7 @@
         <v>1365</v>
       </c>
       <c r="B1365" s="8" t="s">
-        <v>5138</v>
+        <v>5134</v>
       </c>
       <c r="C1365" s="8" t="s">
         <v>4761</v>
@@ -34351,10 +34351,10 @@
         <v>1378</v>
       </c>
       <c r="B1378" s="8" t="s">
-        <v>4820</v>
+        <v>4816</v>
       </c>
       <c r="C1378" s="8" t="s">
-        <v>4821</v>
+        <v>4817</v>
       </c>
       <c r="D1378" s="4"/>
       <c r="E1378" s="1"/>
@@ -34416,10 +34416,10 @@
         <v>1383</v>
       </c>
       <c r="B1383" s="8" t="s">
-        <v>4775</v>
+        <v>4773</v>
       </c>
       <c r="C1383" s="8" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="D1383" s="4"/>
       <c r="E1383" s="1"/>
@@ -34494,7 +34494,7 @@
         <v>1389</v>
       </c>
       <c r="B1389" s="8" t="s">
-        <v>4833</v>
+        <v>4829</v>
       </c>
       <c r="C1389" s="8" t="s">
         <v>2493</v>
@@ -34546,7 +34546,7 @@
         <v>1393</v>
       </c>
       <c r="B1393" s="8" t="s">
-        <v>5164</v>
+        <v>5160</v>
       </c>
       <c r="C1393" s="8" t="s">
         <v>2027</v>
@@ -34585,7 +34585,7 @@
         <v>1396</v>
       </c>
       <c r="B1396" s="8" t="s">
-        <v>4812</v>
+        <v>4808</v>
       </c>
       <c r="C1396" s="8" t="s">
         <v>3330</v>
@@ -34676,10 +34676,10 @@
         <v>1403</v>
       </c>
       <c r="B1403" s="8" t="s">
-        <v>4924</v>
+        <v>4920</v>
       </c>
       <c r="C1403" s="8" t="s">
-        <v>4925</v>
+        <v>4921</v>
       </c>
       <c r="D1403" s="4"/>
       <c r="E1403" s="1"/>
@@ -34705,7 +34705,7 @@
         <v>3825</v>
       </c>
       <c r="C1405" s="8" t="s">
-        <v>5236</v>
+        <v>5232</v>
       </c>
       <c r="D1405" s="4"/>
       <c r="E1405" s="1"/>
@@ -34754,10 +34754,10 @@
         <v>1409</v>
       </c>
       <c r="B1409" s="8" t="s">
-        <v>5099</v>
+        <v>5095</v>
       </c>
       <c r="C1409" s="8" t="s">
-        <v>5020</v>
+        <v>5016</v>
       </c>
       <c r="D1409" s="4"/>
       <c r="E1409" s="1"/>
@@ -34819,10 +34819,10 @@
         <v>1414</v>
       </c>
       <c r="B1414" s="8" t="s">
-        <v>5221</v>
+        <v>5217</v>
       </c>
       <c r="C1414" s="8" t="s">
-        <v>5222</v>
+        <v>5218</v>
       </c>
       <c r="D1414" s="4"/>
       <c r="E1414" s="1"/>
@@ -34861,7 +34861,7 @@
         <v>2307</v>
       </c>
       <c r="C1417" s="8" t="s">
-        <v>4783</v>
+        <v>4779</v>
       </c>
       <c r="D1417" s="4"/>
       <c r="E1417" s="1"/>
@@ -34900,7 +34900,7 @@
         <v>2709</v>
       </c>
       <c r="C1420" s="8" t="s">
-        <v>4990</v>
+        <v>4986</v>
       </c>
       <c r="D1420" s="4"/>
       <c r="E1420" s="1"/>
@@ -35014,7 +35014,7 @@
         <v>1429</v>
       </c>
       <c r="B1429" s="8" t="s">
-        <v>4983</v>
+        <v>4979</v>
       </c>
       <c r="C1429" s="8" t="s">
         <v>3330</v>
@@ -35079,10 +35079,10 @@
         <v>1434</v>
       </c>
       <c r="B1434" s="8" t="s">
-        <v>5197</v>
+        <v>5193</v>
       </c>
       <c r="C1434" s="8" t="s">
-        <v>5198</v>
+        <v>5194</v>
       </c>
       <c r="D1434" s="4"/>
       <c r="E1434" s="1"/>
@@ -35144,10 +35144,10 @@
         <v>1439</v>
       </c>
       <c r="B1439" s="8" t="s">
-        <v>5153</v>
+        <v>5149</v>
       </c>
       <c r="C1439" s="8" t="s">
-        <v>5154</v>
+        <v>5150</v>
       </c>
       <c r="D1439" s="4"/>
       <c r="E1439" s="1"/>
@@ -35186,7 +35186,7 @@
         <v>3817</v>
       </c>
       <c r="C1442" s="8" t="s">
-        <v>5122</v>
+        <v>5118</v>
       </c>
       <c r="D1442" s="4"/>
       <c r="E1442" s="1"/>
@@ -35222,10 +35222,10 @@
         <v>1445</v>
       </c>
       <c r="B1445" s="8" t="s">
-        <v>4977</v>
+        <v>4973</v>
       </c>
       <c r="C1445" s="8" t="s">
-        <v>4978</v>
+        <v>4974</v>
       </c>
       <c r="D1445" s="4"/>
       <c r="E1445" s="1"/>
@@ -35264,7 +35264,7 @@
         <v>3895</v>
       </c>
       <c r="C1448" s="8" t="s">
-        <v>5226</v>
+        <v>5222</v>
       </c>
       <c r="D1448" s="4"/>
       <c r="E1448" s="1"/>
@@ -35394,7 +35394,7 @@
         <v>507</v>
       </c>
       <c r="C1458" s="8" t="s">
-        <v>5248</v>
+        <v>5244</v>
       </c>
       <c r="D1458" s="4"/>
       <c r="E1458" s="1"/>
@@ -35641,7 +35641,7 @@
         <v>2538</v>
       </c>
       <c r="C1477" s="8" t="s">
-        <v>4830</v>
+        <v>4826</v>
       </c>
       <c r="D1477" s="4"/>
       <c r="E1477" s="1"/>
@@ -35820,10 +35820,10 @@
         <v>1491</v>
       </c>
       <c r="B1491" s="8" t="s">
-        <v>5249</v>
+        <v>5245</v>
       </c>
       <c r="C1491" s="8" t="s">
-        <v>5250</v>
+        <v>5246</v>
       </c>
       <c r="D1491" s="4"/>
       <c r="E1491" s="1"/>
@@ -35833,10 +35833,10 @@
         <v>1492</v>
       </c>
       <c r="B1492" s="8" t="s">
-        <v>5021</v>
+        <v>5017</v>
       </c>
       <c r="C1492" s="8" t="s">
-        <v>5022</v>
+        <v>5018</v>
       </c>
       <c r="D1492" s="4"/>
       <c r="E1492" s="1"/>
@@ -36015,10 +36015,10 @@
         <v>1506</v>
       </c>
       <c r="B1506" s="8" t="s">
-        <v>5146</v>
+        <v>5142</v>
       </c>
       <c r="C1506" s="9" t="s">
-        <v>5147</v>
+        <v>5143</v>
       </c>
       <c r="D1506" s="4"/>
       <c r="E1506" s="1"/>
@@ -36028,10 +36028,10 @@
         <v>1507</v>
       </c>
       <c r="B1507" s="8" t="s">
-        <v>5199</v>
+        <v>5195</v>
       </c>
       <c r="C1507" s="9" t="s">
-        <v>5200</v>
+        <v>5196</v>
       </c>
       <c r="D1507" s="4"/>
       <c r="E1507" s="1"/>
@@ -36067,10 +36067,10 @@
         <v>1510</v>
       </c>
       <c r="B1510" s="8" t="s">
-        <v>5244</v>
+        <v>5240</v>
       </c>
       <c r="C1510" s="8" t="s">
-        <v>5245</v>
+        <v>5241</v>
       </c>
       <c r="D1510" s="4"/>
       <c r="E1510" s="1"/>
@@ -36249,10 +36249,10 @@
         <v>1524</v>
       </c>
       <c r="B1524" s="8" t="s">
-        <v>4852</v>
+        <v>4848</v>
       </c>
       <c r="C1524" s="8" t="s">
-        <v>4853</v>
+        <v>4849</v>
       </c>
       <c r="D1524" s="4"/>
       <c r="E1524" s="1"/>
@@ -36262,7 +36262,7 @@
         <v>1525</v>
       </c>
       <c r="B1525" s="8" t="s">
-        <v>4852</v>
+        <v>4848</v>
       </c>
       <c r="C1525" s="8" t="s">
         <v>164</v>
@@ -36379,10 +36379,10 @@
         <v>1534</v>
       </c>
       <c r="B1534" s="8" t="s">
-        <v>5089</v>
+        <v>5085</v>
       </c>
       <c r="C1534" s="8" t="s">
-        <v>5090</v>
+        <v>5086</v>
       </c>
       <c r="D1534" s="4"/>
       <c r="E1534" s="1"/>
@@ -36548,10 +36548,10 @@
         <v>1547</v>
       </c>
       <c r="B1547" s="8" t="s">
-        <v>5166</v>
+        <v>5162</v>
       </c>
       <c r="C1547" s="8" t="s">
-        <v>5167</v>
+        <v>5163</v>
       </c>
       <c r="D1547" s="4"/>
       <c r="E1547" s="1"/>
@@ -36577,7 +36577,7 @@
         <v>2293</v>
       </c>
       <c r="C1549" s="8" t="s">
-        <v>4912</v>
+        <v>4908</v>
       </c>
       <c r="D1549" s="4"/>
       <c r="E1549" s="1"/>
@@ -36678,10 +36678,10 @@
         <v>1557</v>
       </c>
       <c r="B1557" s="8" t="s">
-        <v>5051</v>
+        <v>5047</v>
       </c>
       <c r="C1557" s="8" t="s">
-        <v>5052</v>
+        <v>5048</v>
       </c>
       <c r="D1557" s="4"/>
       <c r="E1557" s="1"/>
@@ -36834,10 +36834,10 @@
         <v>1569</v>
       </c>
       <c r="B1569" s="8" t="s">
-        <v>5056</v>
+        <v>5052</v>
       </c>
       <c r="C1569" s="8" t="s">
-        <v>5057</v>
+        <v>5053</v>
       </c>
       <c r="D1569" s="4"/>
       <c r="E1569" s="1"/>
@@ -36964,10 +36964,10 @@
         <v>1579</v>
       </c>
       <c r="B1579" s="8" t="s">
-        <v>5289</v>
+        <v>5285</v>
       </c>
       <c r="C1579" s="8" t="s">
-        <v>5290</v>
+        <v>5286</v>
       </c>
       <c r="D1579" s="4"/>
       <c r="E1579" s="1"/>
@@ -37029,10 +37029,10 @@
         <v>1584</v>
       </c>
       <c r="B1584" s="8" t="s">
-        <v>4890</v>
+        <v>4886</v>
       </c>
       <c r="C1584" s="8" t="s">
-        <v>4891</v>
+        <v>4887</v>
       </c>
       <c r="D1584" s="4"/>
       <c r="E1584" s="1"/>
@@ -37162,7 +37162,7 @@
         <v>3172</v>
       </c>
       <c r="C1594" s="8" t="s">
-        <v>5277</v>
+        <v>5273</v>
       </c>
       <c r="D1594" s="4"/>
       <c r="E1594" s="1"/>
@@ -38046,7 +38046,7 @@
         <v>2007</v>
       </c>
       <c r="C1662" s="8" t="s">
-        <v>5143</v>
+        <v>5139</v>
       </c>
       <c r="D1662" s="4"/>
       <c r="E1662" s="1"/>
@@ -38085,7 +38085,7 @@
         <v>2663</v>
       </c>
       <c r="C1665" s="8" t="s">
-        <v>4886</v>
+        <v>4882</v>
       </c>
       <c r="D1665" s="4"/>
       <c r="E1665" s="1"/>
@@ -38095,10 +38095,10 @@
         <v>1666</v>
       </c>
       <c r="B1666" s="8" t="s">
-        <v>4885</v>
+        <v>4881</v>
       </c>
       <c r="C1666" s="8" t="s">
-        <v>4886</v>
+        <v>4882</v>
       </c>
       <c r="D1666" s="4"/>
       <c r="E1666" s="1"/>
@@ -38212,10 +38212,10 @@
         <v>1675</v>
       </c>
       <c r="B1675" s="8" t="s">
-        <v>5316</v>
+        <v>5312</v>
       </c>
       <c r="C1675" s="8" t="s">
-        <v>5317</v>
+        <v>5313</v>
       </c>
       <c r="D1675" s="4"/>
       <c r="E1675" s="1"/>
@@ -38628,7 +38628,7 @@
         <v>1707</v>
       </c>
       <c r="B1707" s="8" t="s">
-        <v>4819</v>
+        <v>4815</v>
       </c>
       <c r="C1707" s="8" t="s">
         <v>4200</v>
@@ -38771,10 +38771,10 @@
         <v>1718</v>
       </c>
       <c r="B1718" s="8" t="s">
-        <v>5071</v>
+        <v>5067</v>
       </c>
       <c r="C1718" s="8" t="s">
-        <v>5072</v>
+        <v>5068</v>
       </c>
       <c r="D1718" s="4"/>
       <c r="E1718" s="1"/>
@@ -38888,10 +38888,10 @@
         <v>1727</v>
       </c>
       <c r="B1727" s="8" t="s">
-        <v>4822</v>
+        <v>4818</v>
       </c>
       <c r="C1727" s="8" t="s">
-        <v>4823</v>
+        <v>4819</v>
       </c>
       <c r="D1727" s="4"/>
       <c r="E1727" s="1"/>
@@ -38914,10 +38914,10 @@
         <v>1729</v>
       </c>
       <c r="B1729" s="8" t="s">
-        <v>5251</v>
+        <v>5247</v>
       </c>
       <c r="C1729" s="8" t="s">
-        <v>5252</v>
+        <v>5248</v>
       </c>
       <c r="D1729" s="4"/>
       <c r="E1729" s="1"/>
@@ -38979,10 +38979,10 @@
         <v>1734</v>
       </c>
       <c r="B1734" s="8" t="s">
-        <v>4953</v>
+        <v>4949</v>
       </c>
       <c r="C1734" s="8" t="s">
-        <v>4954</v>
+        <v>4950</v>
       </c>
       <c r="D1734" s="4"/>
       <c r="E1734" s="1"/>
@@ -39343,10 +39343,10 @@
         <v>1762</v>
       </c>
       <c r="B1762" s="8" t="s">
-        <v>5159</v>
+        <v>5155</v>
       </c>
       <c r="C1762" s="8" t="s">
-        <v>5160</v>
+        <v>5156</v>
       </c>
       <c r="D1762" s="4"/>
       <c r="E1762" s="1"/>
@@ -39460,10 +39460,10 @@
         <v>1771</v>
       </c>
       <c r="B1771" s="8" t="s">
-        <v>4862</v>
+        <v>4858</v>
       </c>
       <c r="C1771" s="9" t="s">
-        <v>4863</v>
+        <v>4859</v>
       </c>
       <c r="D1771" s="4"/>
       <c r="E1771" s="1"/>
@@ -39473,10 +39473,10 @@
         <v>1772</v>
       </c>
       <c r="B1772" s="8" t="s">
-        <v>4864</v>
+        <v>4860</v>
       </c>
       <c r="C1772" s="8" t="s">
-        <v>4865</v>
+        <v>4861</v>
       </c>
       <c r="D1772" s="4"/>
       <c r="E1772" s="1"/>
@@ -39499,10 +39499,10 @@
         <v>1774</v>
       </c>
       <c r="B1774" s="8" t="s">
-        <v>5100</v>
+        <v>5096</v>
       </c>
       <c r="C1774" s="8" t="s">
-        <v>5101</v>
+        <v>5097</v>
       </c>
       <c r="D1774" s="4"/>
       <c r="E1774" s="1"/>
@@ -39551,10 +39551,10 @@
         <v>1778</v>
       </c>
       <c r="B1778" s="8" t="s">
-        <v>5268</v>
+        <v>5264</v>
       </c>
       <c r="C1778" s="8" t="s">
-        <v>5269</v>
+        <v>5265</v>
       </c>
       <c r="D1778" s="4"/>
       <c r="E1778" s="1"/>
@@ -39577,7 +39577,7 @@
         <v>1780</v>
       </c>
       <c r="B1780" s="8" t="s">
-        <v>4840</v>
+        <v>4836</v>
       </c>
       <c r="C1780" s="8" t="s">
         <v>1574</v>
@@ -39616,10 +39616,10 @@
         <v>1783</v>
       </c>
       <c r="B1783" s="8" t="s">
-        <v>5266</v>
+        <v>5262</v>
       </c>
       <c r="C1783" s="8" t="s">
-        <v>5267</v>
+        <v>5263</v>
       </c>
       <c r="D1783" s="4"/>
       <c r="E1783" s="1"/>
@@ -39694,7 +39694,7 @@
         <v>1789</v>
       </c>
       <c r="B1789" s="8" t="s">
-        <v>4796</v>
+        <v>4792</v>
       </c>
       <c r="C1789" s="8" t="s">
         <v>4522</v>
@@ -40136,10 +40136,10 @@
         <v>1823</v>
       </c>
       <c r="B1823" s="8" t="s">
-        <v>4903</v>
+        <v>4899</v>
       </c>
       <c r="C1823" s="8" t="s">
-        <v>4904</v>
+        <v>4900</v>
       </c>
       <c r="D1823" s="4"/>
       <c r="E1823" s="1"/>
@@ -40149,10 +40149,10 @@
         <v>1824</v>
       </c>
       <c r="B1824" s="8" t="s">
-        <v>4878</v>
+        <v>4874</v>
       </c>
       <c r="C1824" s="8" t="s">
-        <v>4879</v>
+        <v>4875</v>
       </c>
       <c r="D1824" s="4"/>
       <c r="E1824" s="1"/>
@@ -40162,10 +40162,10 @@
         <v>1825</v>
       </c>
       <c r="B1825" s="8" t="s">
-        <v>5074</v>
+        <v>5070</v>
       </c>
       <c r="C1825" s="8" t="s">
-        <v>5075</v>
+        <v>5071</v>
       </c>
       <c r="D1825" s="4"/>
       <c r="E1825" s="1"/>
@@ -40604,10 +40604,10 @@
         <v>1859</v>
       </c>
       <c r="B1859" s="8" t="s">
-        <v>4805</v>
+        <v>4801</v>
       </c>
       <c r="C1859" s="8" t="s">
-        <v>4806</v>
+        <v>4802</v>
       </c>
       <c r="D1859" s="4"/>
       <c r="E1859" s="1"/>
@@ -40630,10 +40630,10 @@
         <v>1861</v>
       </c>
       <c r="B1861" s="8" t="s">
-        <v>4800</v>
+        <v>4796</v>
       </c>
       <c r="C1861" s="8" t="s">
-        <v>4801</v>
+        <v>4797</v>
       </c>
       <c r="D1861" s="4"/>
       <c r="E1861" s="1"/>
@@ -40643,10 +40643,10 @@
         <v>1862</v>
       </c>
       <c r="B1862" s="8" t="s">
-        <v>4800</v>
+        <v>4796</v>
       </c>
       <c r="C1862" s="8" t="s">
-        <v>5135</v>
+        <v>5131</v>
       </c>
       <c r="D1862" s="4"/>
       <c r="E1862" s="1"/>
@@ -40708,10 +40708,10 @@
         <v>1867</v>
       </c>
       <c r="B1867" s="8" t="s">
-        <v>5142</v>
+        <v>5138</v>
       </c>
       <c r="C1867" s="8" t="s">
-        <v>4928</v>
+        <v>4924</v>
       </c>
       <c r="D1867" s="4"/>
       <c r="E1867" s="1"/>
@@ -40760,10 +40760,10 @@
         <v>1871</v>
       </c>
       <c r="B1871" s="8" t="s">
-        <v>5296</v>
+        <v>5292</v>
       </c>
       <c r="C1871" s="8" t="s">
-        <v>5297</v>
+        <v>5293</v>
       </c>
       <c r="D1871" s="4"/>
       <c r="E1871" s="1"/>
@@ -41020,10 +41020,10 @@
         <v>1891</v>
       </c>
       <c r="B1891" s="8" t="s">
-        <v>5155</v>
+        <v>5151</v>
       </c>
       <c r="C1891" s="8" t="s">
-        <v>5156</v>
+        <v>5152</v>
       </c>
       <c r="D1891" s="4"/>
       <c r="E1891" s="1"/>
@@ -41153,7 +41153,7 @@
         <v>4004</v>
       </c>
       <c r="C1901" s="8" t="s">
-        <v>4993</v>
+        <v>4989</v>
       </c>
       <c r="D1901" s="4"/>
       <c r="E1901" s="1"/>
@@ -41267,10 +41267,10 @@
         <v>1910</v>
       </c>
       <c r="B1910" s="8" t="s">
-        <v>4935</v>
+        <v>4931</v>
       </c>
       <c r="C1910" s="8" t="s">
-        <v>4936</v>
+        <v>4932</v>
       </c>
       <c r="D1910" s="4"/>
       <c r="E1910" s="1"/>
@@ -41280,10 +41280,10 @@
         <v>1911</v>
       </c>
       <c r="B1911" s="8" t="s">
-        <v>4933</v>
+        <v>4929</v>
       </c>
       <c r="C1911" s="8" t="s">
-        <v>4934</v>
+        <v>4930</v>
       </c>
       <c r="D1911" s="4"/>
       <c r="E1911" s="1"/>
@@ -41345,10 +41345,10 @@
         <v>1916</v>
       </c>
       <c r="B1916" s="8" t="s">
-        <v>4994</v>
+        <v>4990</v>
       </c>
       <c r="C1916" s="8" t="s">
-        <v>4995</v>
+        <v>4991</v>
       </c>
       <c r="D1916" s="4"/>
       <c r="E1916" s="1"/>
@@ -41423,10 +41423,10 @@
         <v>1922</v>
       </c>
       <c r="B1922" s="8" t="s">
-        <v>5309</v>
+        <v>5305</v>
       </c>
       <c r="C1922" s="8" t="s">
-        <v>5310</v>
+        <v>5306</v>
       </c>
       <c r="D1922" s="4"/>
       <c r="E1922" s="1"/>
@@ -41491,7 +41491,7 @@
         <v>2846</v>
       </c>
       <c r="C1927" s="8" t="s">
-        <v>5239</v>
+        <v>5235</v>
       </c>
       <c r="D1927" s="4"/>
       <c r="E1927" s="1"/>
@@ -41543,7 +41543,7 @@
         <v>4297</v>
       </c>
       <c r="C1931" s="8" t="s">
-        <v>4961</v>
+        <v>4957</v>
       </c>
       <c r="D1931" s="4"/>
       <c r="E1931" s="1"/>
@@ -41553,10 +41553,10 @@
         <v>1932</v>
       </c>
       <c r="B1932" s="8" t="s">
-        <v>5307</v>
+        <v>5303</v>
       </c>
       <c r="C1932" s="8" t="s">
-        <v>5308</v>
+        <v>5304</v>
       </c>
       <c r="D1932" s="4"/>
       <c r="E1932" s="1"/>
@@ -41826,10 +41826,10 @@
         <v>1953</v>
       </c>
       <c r="B1953" s="8" t="s">
-        <v>4798</v>
+        <v>4794</v>
       </c>
       <c r="C1953" s="8" t="s">
-        <v>4799</v>
+        <v>4795</v>
       </c>
       <c r="D1953" s="4"/>
       <c r="E1953" s="1"/>
@@ -41917,10 +41917,10 @@
         <v>1960</v>
       </c>
       <c r="B1960" s="8" t="s">
-        <v>4857</v>
+        <v>4853</v>
       </c>
       <c r="C1960" s="8" t="s">
-        <v>4858</v>
+        <v>4854</v>
       </c>
       <c r="D1960" s="4"/>
       <c r="E1960" s="1"/>
@@ -42125,10 +42125,10 @@
         <v>1976</v>
       </c>
       <c r="B1976" s="8" t="s">
-        <v>5175</v>
+        <v>5171</v>
       </c>
       <c r="C1976" s="9" t="s">
-        <v>5176</v>
+        <v>5172</v>
       </c>
       <c r="D1976" s="4"/>
       <c r="E1976" s="1"/>
@@ -42138,10 +42138,10 @@
         <v>1977</v>
       </c>
       <c r="B1977" s="8" t="s">
-        <v>5173</v>
+        <v>5169</v>
       </c>
       <c r="C1977" s="8" t="s">
-        <v>5174</v>
+        <v>5170</v>
       </c>
       <c r="D1977" s="4"/>
       <c r="E1977" s="1"/>
@@ -42372,10 +42372,10 @@
         <v>1995</v>
       </c>
       <c r="B1995" s="8" t="s">
-        <v>5127</v>
+        <v>5123</v>
       </c>
       <c r="C1995" s="8" t="s">
-        <v>4901</v>
+        <v>4897</v>
       </c>
       <c r="D1995" s="4"/>
       <c r="E1995" s="1"/>
@@ -42661,7 +42661,7 @@
         <v>306</v>
       </c>
       <c r="C2017" s="8" t="s">
-        <v>4785</v>
+        <v>4781</v>
       </c>
       <c r="D2017" s="4"/>
       <c r="E2017" s="1"/>
@@ -42697,10 +42697,10 @@
         <v>2020</v>
       </c>
       <c r="B2020" s="8" t="s">
-        <v>5177</v>
+        <v>5173</v>
       </c>
       <c r="C2020" s="8" t="s">
-        <v>5178</v>
+        <v>5174</v>
       </c>
       <c r="D2020" s="4"/>
       <c r="E2020" s="1"/>
@@ -42947,7 +42947,7 @@
         <v>2661</v>
       </c>
       <c r="C2039" s="8" t="s">
-        <v>4957</v>
+        <v>4953</v>
       </c>
       <c r="D2039" s="4"/>
       <c r="E2039" s="1"/>
@@ -42973,7 +42973,7 @@
         <v>3469</v>
       </c>
       <c r="C2041" s="8" t="s">
-        <v>4958</v>
+        <v>4954</v>
       </c>
       <c r="D2041" s="4"/>
       <c r="E2041" s="1"/>
@@ -42983,10 +42983,10 @@
         <v>2042</v>
       </c>
       <c r="B2042" s="8" t="s">
-        <v>4949</v>
+        <v>4945</v>
       </c>
       <c r="C2042" s="8" t="s">
-        <v>4950</v>
+        <v>4946</v>
       </c>
       <c r="D2042" s="4"/>
       <c r="E2042" s="1"/>
@@ -43152,10 +43152,10 @@
         <v>2055</v>
       </c>
       <c r="B2055" s="8" t="s">
-        <v>5313</v>
+        <v>5309</v>
       </c>
       <c r="C2055" s="8" t="s">
-        <v>5314</v>
+        <v>5310</v>
       </c>
       <c r="D2055" s="4"/>
       <c r="E2055" s="1"/>
@@ -43204,10 +43204,10 @@
         <v>2059</v>
       </c>
       <c r="B2059" s="8" t="s">
-        <v>5299</v>
+        <v>5295</v>
       </c>
       <c r="C2059" s="8" t="s">
-        <v>5300</v>
+        <v>5296</v>
       </c>
       <c r="D2059" s="4"/>
       <c r="E2059" s="1"/>
@@ -43243,10 +43243,10 @@
         <v>2062</v>
       </c>
       <c r="B2062" s="8" t="s">
-        <v>5216</v>
+        <v>5212</v>
       </c>
       <c r="C2062" s="8" t="s">
-        <v>5217</v>
+        <v>5213</v>
       </c>
       <c r="D2062" s="4"/>
       <c r="E2062" s="1"/>
@@ -43412,7 +43412,7 @@
         <v>2075</v>
       </c>
       <c r="B2075" s="8" t="s">
-        <v>5163</v>
+        <v>5159</v>
       </c>
       <c r="C2075" s="8" t="s">
         <v>281</v>
@@ -43493,7 +43493,7 @@
         <v>3189</v>
       </c>
       <c r="C2081" s="8" t="s">
-        <v>5141</v>
+        <v>5137</v>
       </c>
       <c r="D2081" s="4"/>
       <c r="E2081" s="1"/>
@@ -43597,7 +43597,7 @@
         <v>2637</v>
       </c>
       <c r="C2089" s="8" t="s">
-        <v>4913</v>
+        <v>4909</v>
       </c>
       <c r="D2089" s="4"/>
       <c r="E2089" s="1"/>
@@ -43701,7 +43701,7 @@
         <v>3254</v>
       </c>
       <c r="C2097" s="8" t="s">
-        <v>4976</v>
+        <v>4972</v>
       </c>
       <c r="D2097" s="4"/>
       <c r="E2097" s="1"/>
@@ -43750,7 +43750,7 @@
         <v>2101</v>
       </c>
       <c r="B2101" s="8" t="s">
-        <v>4939</v>
+        <v>4935</v>
       </c>
       <c r="C2101" s="8" t="s">
         <v>2164</v>
@@ -43935,7 +43935,7 @@
         <v>4206</v>
       </c>
       <c r="C2115" s="8" t="s">
-        <v>4829</v>
+        <v>4825</v>
       </c>
       <c r="D2115" s="4"/>
       <c r="E2115" s="1"/>
@@ -43984,10 +43984,10 @@
         <v>2119</v>
       </c>
       <c r="B2119" s="8" t="s">
-        <v>4843</v>
+        <v>4839</v>
       </c>
       <c r="C2119" s="9" t="s">
-        <v>4844</v>
+        <v>4840</v>
       </c>
       <c r="D2119" s="4"/>
       <c r="E2119" s="1"/>
@@ -43997,10 +43997,10 @@
         <v>2120</v>
       </c>
       <c r="B2120" s="8" t="s">
-        <v>5292</v>
+        <v>5288</v>
       </c>
       <c r="C2120" s="8" t="s">
-        <v>5293</v>
+        <v>5289</v>
       </c>
       <c r="D2120" s="4"/>
       <c r="E2120" s="1"/>
@@ -44062,10 +44062,10 @@
         <v>2125</v>
       </c>
       <c r="B2125" s="8" t="s">
-        <v>4918</v>
+        <v>4914</v>
       </c>
       <c r="C2125" s="8" t="s">
-        <v>4919</v>
+        <v>4915</v>
       </c>
       <c r="D2125" s="4"/>
       <c r="E2125" s="1"/>
@@ -44283,7 +44283,7 @@
         <v>2142</v>
       </c>
       <c r="B2142" s="8" t="s">
-        <v>5280</v>
+        <v>5276</v>
       </c>
       <c r="C2142" s="8" t="s">
         <v>2894</v>
@@ -44481,7 +44481,7 @@
         <v>2016</v>
       </c>
       <c r="C2157" s="8" t="s">
-        <v>5024</v>
+        <v>5020</v>
       </c>
       <c r="D2157" s="4"/>
       <c r="E2157" s="1"/>
@@ -44582,10 +44582,10 @@
         <v>2165</v>
       </c>
       <c r="B2165" s="8" t="s">
-        <v>5043</v>
+        <v>5039</v>
       </c>
       <c r="C2165" s="9" t="s">
-        <v>5044</v>
+        <v>5040</v>
       </c>
       <c r="D2165" s="4"/>
       <c r="E2165" s="1"/>
@@ -44608,10 +44608,10 @@
         <v>2167</v>
       </c>
       <c r="B2167" s="8" t="s">
-        <v>5002</v>
+        <v>4998</v>
       </c>
       <c r="C2167" s="8" t="s">
-        <v>5003</v>
+        <v>4999</v>
       </c>
       <c r="D2167" s="4"/>
       <c r="E2167" s="1"/>
@@ -44689,7 +44689,7 @@
         <v>2672</v>
       </c>
       <c r="C2173" s="8" t="s">
-        <v>5029</v>
+        <v>5025</v>
       </c>
       <c r="D2173" s="4"/>
       <c r="E2173" s="1"/>
@@ -44712,10 +44712,10 @@
         <v>2175</v>
       </c>
       <c r="B2175" s="8" t="s">
-        <v>5030</v>
+        <v>5026</v>
       </c>
       <c r="C2175" s="9" t="s">
-        <v>5031</v>
+        <v>5027</v>
       </c>
       <c r="D2175" s="4"/>
       <c r="E2175" s="1"/>
@@ -44780,7 +44780,7 @@
         <v>2298</v>
       </c>
       <c r="C2180" s="8" t="s">
-        <v>5013</v>
+        <v>5009</v>
       </c>
       <c r="D2180" s="4"/>
       <c r="E2180" s="1"/>
@@ -44790,10 +44790,10 @@
         <v>2181</v>
       </c>
       <c r="B2181" s="8" t="s">
-        <v>5214</v>
+        <v>5210</v>
       </c>
       <c r="C2181" s="8" t="s">
-        <v>5215</v>
+        <v>5211</v>
       </c>
       <c r="D2181" s="4"/>
       <c r="E2181" s="1"/>
@@ -44871,7 +44871,7 @@
         <v>3095</v>
       </c>
       <c r="C2187" s="8" t="s">
-        <v>4897</v>
+        <v>4893</v>
       </c>
       <c r="D2187" s="4"/>
       <c r="E2187" s="1"/>
@@ -44923,7 +44923,7 @@
         <v>2704</v>
       </c>
       <c r="C2191" s="8" t="s">
-        <v>4932</v>
+        <v>4928</v>
       </c>
       <c r="D2191" s="4"/>
       <c r="E2191" s="1"/>
@@ -44972,10 +44972,10 @@
         <v>2195</v>
       </c>
       <c r="B2195" s="8" t="s">
-        <v>5133</v>
+        <v>5129</v>
       </c>
       <c r="C2195" s="8" t="s">
-        <v>5134</v>
+        <v>5130</v>
       </c>
       <c r="D2195" s="4"/>
       <c r="E2195" s="1"/>
@@ -45105,7 +45105,7 @@
         <v>4745</v>
       </c>
       <c r="C2205" s="9" t="s">
-        <v>4875</v>
+        <v>4871</v>
       </c>
       <c r="D2205" s="4"/>
       <c r="E2205" s="1"/>
@@ -45206,10 +45206,10 @@
         <v>2213</v>
       </c>
       <c r="B2213" s="8" t="s">
-        <v>5259</v>
+        <v>5255</v>
       </c>
       <c r="C2213" s="8" t="s">
-        <v>5260</v>
+        <v>5256</v>
       </c>
       <c r="D2213" s="4"/>
       <c r="E2213" s="1"/>
@@ -45401,10 +45401,10 @@
         <v>2228</v>
       </c>
       <c r="B2228" s="8" t="s">
-        <v>5144</v>
+        <v>5140</v>
       </c>
       <c r="C2228" s="8" t="s">
-        <v>5145</v>
+        <v>5141</v>
       </c>
       <c r="D2228" s="4"/>
       <c r="E2228" s="1"/>
@@ -45505,10 +45505,10 @@
         <v>2236</v>
       </c>
       <c r="B2236" s="8" t="s">
-        <v>4914</v>
+        <v>4910</v>
       </c>
       <c r="C2236" s="8" t="s">
-        <v>4915</v>
+        <v>4911</v>
       </c>
       <c r="D2236" s="4"/>
       <c r="E2236" s="1"/>
@@ -45518,10 +45518,10 @@
         <v>2237</v>
       </c>
       <c r="B2237" s="8" t="s">
-        <v>5311</v>
+        <v>5307</v>
       </c>
       <c r="C2237" s="8" t="s">
-        <v>5312</v>
+        <v>5308</v>
       </c>
       <c r="D2237" s="4"/>
       <c r="E2237" s="1"/>
@@ -45612,7 +45612,7 @@
         <v>3567</v>
       </c>
       <c r="C2244" s="8" t="s">
-        <v>4964</v>
+        <v>4960</v>
       </c>
       <c r="D2244" s="4"/>
       <c r="E2244" s="1"/>
@@ -45817,10 +45817,10 @@
         <v>2260</v>
       </c>
       <c r="B2260" s="8" t="s">
-        <v>5161</v>
+        <v>5157</v>
       </c>
       <c r="C2260" s="9" t="s">
-        <v>5162</v>
+        <v>5158</v>
       </c>
       <c r="D2260" s="4"/>
       <c r="E2260" s="1"/>
@@ -45830,7 +45830,7 @@
         <v>2261</v>
       </c>
       <c r="B2261" s="8" t="s">
-        <v>5258</v>
+        <v>5254</v>
       </c>
       <c r="C2261" s="8" t="s">
         <v>899</v>
@@ -45937,7 +45937,7 @@
         <v>1811</v>
       </c>
       <c r="C2269" s="8" t="s">
-        <v>4861</v>
+        <v>4857</v>
       </c>
       <c r="D2269" s="4"/>
       <c r="E2269" s="1"/>
@@ -46298,10 +46298,10 @@
         <v>2297</v>
       </c>
       <c r="B2297" s="8" t="s">
-        <v>5246</v>
+        <v>5242</v>
       </c>
       <c r="C2297" s="8" t="s">
-        <v>5247</v>
+        <v>5243</v>
       </c>
       <c r="D2297" s="4"/>
       <c r="E2297" s="1"/>
@@ -46376,10 +46376,10 @@
         <v>2303</v>
       </c>
       <c r="B2303" s="8" t="s">
-        <v>5082</v>
+        <v>5078</v>
       </c>
       <c r="C2303" s="8" t="s">
-        <v>5083</v>
+        <v>5079</v>
       </c>
       <c r="D2303" s="4"/>
       <c r="E2303" s="1"/>
@@ -46457,7 +46457,7 @@
         <v>2792</v>
       </c>
       <c r="C2309" s="8" t="s">
-        <v>4883</v>
+        <v>4879</v>
       </c>
       <c r="D2309" s="4"/>
       <c r="E2309" s="1"/>
@@ -46545,10 +46545,10 @@
         <v>2316</v>
       </c>
       <c r="B2316" s="8" t="s">
-        <v>5264</v>
+        <v>5260</v>
       </c>
       <c r="C2316" s="8" t="s">
-        <v>5265</v>
+        <v>5261</v>
       </c>
       <c r="D2316" s="4"/>
       <c r="E2316" s="1"/>
@@ -46610,10 +46610,10 @@
         <v>2321</v>
       </c>
       <c r="B2321" s="8" t="s">
-        <v>5191</v>
+        <v>5187</v>
       </c>
       <c r="C2321" s="8" t="s">
-        <v>5192</v>
+        <v>5188</v>
       </c>
       <c r="D2321" s="4"/>
       <c r="E2321" s="1"/>
@@ -46662,10 +46662,10 @@
         <v>2325</v>
       </c>
       <c r="B2325" s="8" t="s">
-        <v>5219</v>
+        <v>5215</v>
       </c>
       <c r="C2325" s="8" t="s">
-        <v>5220</v>
+        <v>5216</v>
       </c>
       <c r="D2325" s="4"/>
       <c r="E2325" s="1"/>
@@ -47338,10 +47338,10 @@
         <v>2377</v>
       </c>
       <c r="B2377" s="8" t="s">
-        <v>4868</v>
+        <v>4864</v>
       </c>
       <c r="C2377" s="8" t="s">
-        <v>4869</v>
+        <v>4865</v>
       </c>
       <c r="D2377" s="4"/>
       <c r="E2377" s="1"/>
@@ -47416,10 +47416,10 @@
         <v>2383</v>
       </c>
       <c r="B2383" s="8" t="s">
-        <v>4998</v>
+        <v>4994</v>
       </c>
       <c r="C2383" s="8" t="s">
-        <v>4999</v>
+        <v>4995</v>
       </c>
       <c r="D2383" s="4"/>
       <c r="E2383" s="1"/>
@@ -47429,10 +47429,10 @@
         <v>2384</v>
       </c>
       <c r="B2384" s="8" t="s">
-        <v>4876</v>
+        <v>4872</v>
       </c>
       <c r="C2384" s="8" t="s">
-        <v>4877</v>
+        <v>4873</v>
       </c>
       <c r="D2384" s="4"/>
       <c r="E2384" s="1"/>
@@ -47871,10 +47871,10 @@
         <v>2418</v>
       </c>
       <c r="B2418" s="8" t="s">
-        <v>4984</v>
+        <v>4980</v>
       </c>
       <c r="C2418" s="8" t="s">
-        <v>4985</v>
+        <v>4981</v>
       </c>
       <c r="D2418" s="4"/>
       <c r="E2418" s="1"/>
@@ -47897,7 +47897,7 @@
         <v>2420</v>
       </c>
       <c r="B2420" s="8" t="s">
-        <v>5253</v>
+        <v>5249</v>
       </c>
       <c r="C2420" s="8" t="s">
         <v>1103</v>
@@ -47939,7 +47939,7 @@
         <v>3799</v>
       </c>
       <c r="C2423" s="8" t="s">
-        <v>5256</v>
+        <v>5252</v>
       </c>
       <c r="D2423" s="4"/>
       <c r="E2423" s="1"/>
@@ -48040,10 +48040,10 @@
         <v>2431</v>
       </c>
       <c r="B2431" s="8" t="s">
-        <v>4808</v>
+        <v>4804</v>
       </c>
       <c r="C2431" s="9" t="s">
-        <v>4809</v>
+        <v>4805</v>
       </c>
       <c r="D2431" s="4"/>
       <c r="E2431" s="1"/>
@@ -48105,10 +48105,10 @@
         <v>2436</v>
       </c>
       <c r="B2436" s="8" t="s">
-        <v>5305</v>
+        <v>5301</v>
       </c>
       <c r="C2436" s="8" t="s">
-        <v>5306</v>
+        <v>5302</v>
       </c>
       <c r="D2436" s="4"/>
       <c r="E2436" s="1"/>
@@ -48274,10 +48274,10 @@
         <v>2449</v>
       </c>
       <c r="B2449" s="8" t="s">
-        <v>5171</v>
+        <v>5167</v>
       </c>
       <c r="C2449" s="8" t="s">
-        <v>5172</v>
+        <v>5168</v>
       </c>
       <c r="D2449" s="4"/>
       <c r="E2449" s="1"/>
@@ -48417,10 +48417,10 @@
         <v>2460</v>
       </c>
       <c r="B2460" s="8" t="s">
-        <v>4909</v>
+        <v>4905</v>
       </c>
       <c r="C2460" s="8" t="s">
-        <v>4910</v>
+        <v>4906</v>
       </c>
       <c r="D2460" s="4"/>
       <c r="E2460" s="1"/>
@@ -48573,10 +48573,10 @@
         <v>2472</v>
       </c>
       <c r="B2472" s="8" t="s">
-        <v>5069</v>
+        <v>5065</v>
       </c>
       <c r="C2472" s="8" t="s">
-        <v>5070</v>
+        <v>5066</v>
       </c>
       <c r="D2472" s="4"/>
       <c r="E2472" s="1"/>
@@ -48976,10 +48976,10 @@
         <v>2503</v>
       </c>
       <c r="B2503" s="8" t="s">
-        <v>4779</v>
+        <v>4775</v>
       </c>
       <c r="C2503" s="8" t="s">
-        <v>4780</v>
+        <v>4776</v>
       </c>
       <c r="D2503" s="4"/>
       <c r="E2503" s="1"/>
@@ -49122,7 +49122,7 @@
         <v>2159</v>
       </c>
       <c r="C2514" s="8" t="s">
-        <v>5103</v>
+        <v>5099</v>
       </c>
       <c r="D2514" s="4"/>
       <c r="E2514" s="1"/>
@@ -49171,10 +49171,10 @@
         <v>2518</v>
       </c>
       <c r="B2518" s="8" t="s">
-        <v>5240</v>
+        <v>5236</v>
       </c>
       <c r="C2518" s="9" t="s">
-        <v>5241</v>
+        <v>5237</v>
       </c>
       <c r="D2518" s="4"/>
       <c r="E2518" s="1"/>
@@ -49184,10 +49184,10 @@
         <v>2519</v>
       </c>
       <c r="B2519" s="8" t="s">
-        <v>4991</v>
+        <v>4987</v>
       </c>
       <c r="C2519" s="8" t="s">
-        <v>4853</v>
+        <v>4849</v>
       </c>
       <c r="D2519" s="4"/>
       <c r="E2519" s="1"/>
@@ -49197,10 +49197,10 @@
         <v>2520</v>
       </c>
       <c r="B2520" s="8" t="s">
-        <v>5104</v>
+        <v>5100</v>
       </c>
       <c r="C2520" s="8" t="s">
-        <v>5105</v>
+        <v>5101</v>
       </c>
       <c r="D2520" s="4"/>
       <c r="E2520" s="1"/>
@@ -49226,7 +49226,7 @@
         <v>1984</v>
       </c>
       <c r="C2522" s="8" t="s">
-        <v>5315</v>
+        <v>5311</v>
       </c>
       <c r="D2522" s="4"/>
       <c r="E2522" s="1"/>
@@ -49275,10 +49275,10 @@
         <v>2526</v>
       </c>
       <c r="B2526" s="8" t="s">
-        <v>5301</v>
+        <v>5297</v>
       </c>
       <c r="C2526" s="8" t="s">
-        <v>5302</v>
+        <v>5298</v>
       </c>
       <c r="D2526" s="4"/>
       <c r="E2526" s="1"/>
@@ -49665,10 +49665,10 @@
         <v>2556</v>
       </c>
       <c r="B2556" s="8" t="s">
-        <v>5000</v>
+        <v>4996</v>
       </c>
       <c r="C2556" s="8" t="s">
-        <v>5001</v>
+        <v>4997</v>
       </c>
       <c r="D2556" s="4"/>
       <c r="E2556" s="1"/>
@@ -49733,7 +49733,7 @@
         <v>104</v>
       </c>
       <c r="C2561" s="8" t="s">
-        <v>4902</v>
+        <v>4898</v>
       </c>
       <c r="D2561" s="4"/>
       <c r="E2561" s="1"/>
@@ -49743,10 +49743,10 @@
         <v>2562</v>
       </c>
       <c r="B2562" s="8" t="s">
-        <v>4882</v>
+        <v>4878</v>
       </c>
       <c r="C2562" s="8" t="s">
-        <v>4883</v>
+        <v>4879</v>
       </c>
       <c r="D2562" s="4"/>
       <c r="E2562" s="1"/>
@@ -49873,10 +49873,10 @@
         <v>2572</v>
       </c>
       <c r="B2572" s="8" t="s">
-        <v>4841</v>
+        <v>4837</v>
       </c>
       <c r="C2572" s="8" t="s">
-        <v>4842</v>
+        <v>4838</v>
       </c>
       <c r="D2572" s="4"/>
       <c r="E2572" s="1"/>
@@ -50318,7 +50318,7 @@
         <v>3351</v>
       </c>
       <c r="C2606" s="8" t="s">
-        <v>5012</v>
+        <v>5008</v>
       </c>
       <c r="D2606" s="4"/>
       <c r="E2606" s="1"/>
@@ -50328,10 +50328,10 @@
         <v>2607</v>
       </c>
       <c r="B2607" s="8" t="s">
-        <v>5008</v>
+        <v>5004</v>
       </c>
       <c r="C2607" s="9" t="s">
-        <v>5009</v>
+        <v>5005</v>
       </c>
       <c r="D2607" s="4"/>
       <c r="E2607" s="1"/>
@@ -50341,10 +50341,10 @@
         <v>2608</v>
       </c>
       <c r="B2608" s="8" t="s">
-        <v>5010</v>
+        <v>5006</v>
       </c>
       <c r="C2608" s="9" t="s">
-        <v>5011</v>
+        <v>5007</v>
       </c>
       <c r="D2608" s="4"/>
       <c r="E2608" s="1"/>
@@ -50406,10 +50406,10 @@
         <v>2613</v>
       </c>
       <c r="B2613" s="8" t="s">
-        <v>4831</v>
+        <v>4827</v>
       </c>
       <c r="C2613" s="8" t="s">
-        <v>4832</v>
+        <v>4828</v>
       </c>
       <c r="D2613" s="4"/>
       <c r="E2613" s="1"/>
@@ -50562,10 +50562,10 @@
         <v>2625</v>
       </c>
       <c r="B2625" s="8" t="s">
-        <v>5201</v>
+        <v>5197</v>
       </c>
       <c r="C2625" s="9" t="s">
-        <v>5202</v>
+        <v>5198</v>
       </c>
       <c r="D2625" s="4"/>
       <c r="E2625" s="1"/>
@@ -50591,7 +50591,7 @@
         <v>3099</v>
       </c>
       <c r="C2627" s="8" t="s">
-        <v>4896</v>
+        <v>4892</v>
       </c>
       <c r="D2627" s="4"/>
       <c r="E2627" s="1"/>
@@ -50643,7 +50643,7 @@
         <v>4701</v>
       </c>
       <c r="C2631" s="9" t="s">
-        <v>4807</v>
+        <v>4803</v>
       </c>
       <c r="D2631" s="4"/>
       <c r="E2631" s="1"/>
@@ -50653,10 +50653,10 @@
         <v>2632</v>
       </c>
       <c r="B2632" s="8" t="s">
-        <v>5203</v>
+        <v>5199</v>
       </c>
       <c r="C2632" s="9" t="s">
-        <v>5204</v>
+        <v>5200</v>
       </c>
       <c r="D2632" s="4"/>
       <c r="E2632" s="1"/>
@@ -50770,7 +50770,7 @@
         <v>2641</v>
       </c>
       <c r="B2641" s="8" t="s">
-        <v>5165</v>
+        <v>5161</v>
       </c>
       <c r="C2641" s="8" t="s">
         <v>3871</v>
@@ -50926,10 +50926,10 @@
         <v>2653</v>
       </c>
       <c r="B2653" s="8" t="s">
-        <v>5151</v>
+        <v>5147</v>
       </c>
       <c r="C2653" s="8" t="s">
-        <v>5152</v>
+        <v>5148</v>
       </c>
       <c r="D2653" s="4"/>
       <c r="E2653" s="1"/>
@@ -50952,10 +50952,10 @@
         <v>2655</v>
       </c>
       <c r="B2655" s="8" t="s">
-        <v>4927</v>
+        <v>4923</v>
       </c>
       <c r="C2655" s="8" t="s">
-        <v>4928</v>
+        <v>4924</v>
       </c>
       <c r="D2655" s="4"/>
       <c r="E2655" s="1"/>
@@ -50965,10 +50965,10 @@
         <v>2656</v>
       </c>
       <c r="B2656" s="8" t="s">
-        <v>5136</v>
+        <v>5132</v>
       </c>
       <c r="C2656" s="8" t="s">
-        <v>5137</v>
+        <v>5133</v>
       </c>
       <c r="D2656" s="4"/>
       <c r="E2656" s="1"/>
@@ -51030,10 +51030,10 @@
         <v>2661</v>
       </c>
       <c r="B2661" s="8" t="s">
-        <v>5285</v>
+        <v>5281</v>
       </c>
       <c r="C2661" s="8" t="s">
-        <v>5286</v>
+        <v>5282</v>
       </c>
       <c r="D2661" s="4"/>
       <c r="E2661" s="1"/>
@@ -51095,10 +51095,10 @@
         <v>2666</v>
       </c>
       <c r="B2666" s="8" t="s">
-        <v>5281</v>
+        <v>5277</v>
       </c>
       <c r="C2666" s="8" t="s">
-        <v>5282</v>
+        <v>5278</v>
       </c>
       <c r="D2666" s="4"/>
       <c r="E2666" s="1"/>
@@ -51147,10 +51147,10 @@
         <v>2670</v>
       </c>
       <c r="B2670" s="8" t="s">
-        <v>4789</v>
+        <v>4785</v>
       </c>
       <c r="C2670" s="9" t="s">
-        <v>4790</v>
+        <v>4786</v>
       </c>
       <c r="D2670" s="4"/>
       <c r="E2670" s="1"/>
@@ -51160,10 +51160,10 @@
         <v>2671</v>
       </c>
       <c r="B2671" s="8" t="s">
-        <v>4791</v>
+        <v>4787</v>
       </c>
       <c r="C2671" s="9" t="s">
-        <v>4792</v>
+        <v>4788</v>
       </c>
       <c r="D2671" s="4"/>
       <c r="E2671" s="1"/>
@@ -51186,7 +51186,7 @@
         <v>2673</v>
       </c>
       <c r="B2673" s="8" t="s">
-        <v>4847</v>
+        <v>4843</v>
       </c>
       <c r="C2673" s="8" t="s">
         <v>4007</v>
@@ -51199,10 +51199,10 @@
         <v>2674</v>
       </c>
       <c r="B2674" s="8" t="s">
-        <v>5283</v>
+        <v>5279</v>
       </c>
       <c r="C2674" s="8" t="s">
-        <v>5284</v>
+        <v>5280</v>
       </c>
       <c r="D2674" s="4"/>
       <c r="E2674" s="1"/>
@@ -51407,10 +51407,10 @@
         <v>2690</v>
       </c>
       <c r="B2690" s="8" t="s">
-        <v>5079</v>
+        <v>5075</v>
       </c>
       <c r="C2690" s="8" t="s">
-        <v>5080</v>
+        <v>5076</v>
       </c>
       <c r="D2690" s="4"/>
       <c r="E2690" s="1"/>
@@ -51436,7 +51436,7 @@
         <v>3774</v>
       </c>
       <c r="C2692" s="8" t="s">
-        <v>5106</v>
+        <v>5102</v>
       </c>
       <c r="D2692" s="4"/>
       <c r="E2692" s="1"/>
@@ -51618,7 +51618,7 @@
         <v>4132</v>
       </c>
       <c r="C2706" s="8" t="s">
-        <v>4872</v>
+        <v>4868</v>
       </c>
       <c r="D2706" s="4"/>
       <c r="E2706" s="1"/>
@@ -51631,7 +51631,7 @@
         <v>4132</v>
       </c>
       <c r="C2707" s="8" t="s">
-        <v>5084</v>
+        <v>5080</v>
       </c>
       <c r="D2707" s="4"/>
       <c r="E2707" s="1"/>
@@ -51758,10 +51758,10 @@
         <v>2717</v>
       </c>
       <c r="B2717" s="8" t="s">
-        <v>5149</v>
+        <v>5145</v>
       </c>
       <c r="C2717" s="8" t="s">
-        <v>5150</v>
+        <v>5146</v>
       </c>
       <c r="D2717" s="4"/>
       <c r="E2717" s="1"/>
@@ -52447,7 +52447,7 @@
         <v>2770</v>
       </c>
       <c r="B2770" s="8" t="s">
-        <v>4926</v>
+        <v>4922</v>
       </c>
       <c r="C2770" s="8" t="s">
         <v>4480</v>
@@ -52629,7 +52629,7 @@
         <v>2784</v>
       </c>
       <c r="B2784" s="8" t="s">
-        <v>5037</v>
+        <v>5033</v>
       </c>
       <c r="C2784" s="8" t="s">
         <v>2042</v>
@@ -53136,10 +53136,10 @@
         <v>2823</v>
       </c>
       <c r="B2823" s="8" t="s">
-        <v>5231</v>
+        <v>5227</v>
       </c>
       <c r="C2823" s="8" t="s">
-        <v>5232</v>
+        <v>5228</v>
       </c>
       <c r="D2823" s="4"/>
       <c r="E2823" s="1"/>
@@ -53149,10 +53149,10 @@
         <v>2824</v>
       </c>
       <c r="B2824" s="8" t="s">
-        <v>4944</v>
+        <v>4940</v>
       </c>
       <c r="C2824" s="8" t="s">
-        <v>4945</v>
+        <v>4941</v>
       </c>
       <c r="D2824" s="4"/>
       <c r="E2824" s="1"/>
@@ -53214,7 +53214,7 @@
         <v>2829</v>
       </c>
       <c r="B2829" s="8" t="s">
-        <v>5233</v>
+        <v>5229</v>
       </c>
       <c r="C2829" s="8" t="s">
         <v>2466</v>
@@ -53331,10 +53331,10 @@
         <v>2838</v>
       </c>
       <c r="B2838" s="8" t="s">
-        <v>5272</v>
+        <v>5268</v>
       </c>
       <c r="C2838" s="8" t="s">
-        <v>5273</v>
+        <v>5269</v>
       </c>
       <c r="D2838" s="4"/>
       <c r="E2838" s="1"/>
@@ -53581,7 +53581,7 @@
         <v>4400</v>
       </c>
       <c r="C2857" s="8" t="s">
-        <v>5288</v>
+        <v>5284</v>
       </c>
       <c r="D2857" s="4"/>
       <c r="E2857" s="1"/>
@@ -53776,7 +53776,7 @@
         <v>2167</v>
       </c>
       <c r="C2872" s="8" t="s">
-        <v>4884</v>
+        <v>4880</v>
       </c>
       <c r="D2872" s="4"/>
       <c r="E2872" s="1"/>
@@ -53867,7 +53867,7 @@
         <v>1575</v>
       </c>
       <c r="C2879" s="8" t="s">
-        <v>5235</v>
+        <v>5231</v>
       </c>
       <c r="D2879" s="4"/>
       <c r="E2879" s="1"/>
@@ -53877,10 +53877,10 @@
         <v>2880</v>
       </c>
       <c r="B2880" s="8" t="s">
-        <v>5032</v>
+        <v>5028</v>
       </c>
       <c r="C2880" s="9" t="s">
-        <v>5033</v>
+        <v>5029</v>
       </c>
       <c r="D2880" s="4"/>
       <c r="E2880" s="1"/>
@@ -54332,10 +54332,10 @@
         <v>2915</v>
       </c>
       <c r="B2915" s="8" t="s">
-        <v>4951</v>
+        <v>4947</v>
       </c>
       <c r="C2915" s="8" t="s">
-        <v>4952</v>
+        <v>4948</v>
       </c>
       <c r="D2915" s="4"/>
       <c r="E2915" s="1"/>
@@ -54410,10 +54410,10 @@
         <v>2921</v>
       </c>
       <c r="B2921" s="8" t="s">
-        <v>4777</v>
+        <v>5325</v>
       </c>
       <c r="C2921" s="8" t="s">
-        <v>4778</v>
+        <v>5326</v>
       </c>
       <c r="D2921" s="4"/>
       <c r="E2921" s="1"/>
@@ -54423,10 +54423,10 @@
         <v>2922</v>
       </c>
       <c r="B2922" s="8" t="s">
-        <v>4773</v>
+        <v>5327</v>
       </c>
       <c r="C2922" s="8" t="s">
-        <v>4774</v>
+        <v>5328</v>
       </c>
       <c r="D2922" s="4"/>
       <c r="E2922" s="1"/>
@@ -54605,10 +54605,10 @@
         <v>2936</v>
       </c>
       <c r="B2936" s="8" t="s">
-        <v>4922</v>
+        <v>4918</v>
       </c>
       <c r="C2936" s="8" t="s">
-        <v>4923</v>
+        <v>4919</v>
       </c>
       <c r="D2936" s="4"/>
       <c r="E2936" s="1"/>
@@ -54722,10 +54722,10 @@
         <v>2945</v>
       </c>
       <c r="B2945" s="8" t="s">
-        <v>5227</v>
+        <v>5223</v>
       </c>
       <c r="C2945" s="8" t="s">
-        <v>5228</v>
+        <v>5224</v>
       </c>
       <c r="D2945" s="4"/>
       <c r="E2945" s="1"/>
@@ -54735,10 +54735,10 @@
         <v>2946</v>
       </c>
       <c r="B2946" s="8" t="s">
-        <v>5229</v>
+        <v>5225</v>
       </c>
       <c r="C2946" s="8" t="s">
-        <v>5230</v>
+        <v>5226</v>
       </c>
       <c r="D2946" s="4"/>
       <c r="E2946" s="1"/>
@@ -54764,7 +54764,7 @@
         <v>2903</v>
       </c>
       <c r="C2948" s="8" t="s">
-        <v>4969</v>
+        <v>4965</v>
       </c>
       <c r="D2948" s="4"/>
       <c r="E2948" s="1"/>
@@ -54787,10 +54787,10 @@
         <v>2950</v>
       </c>
       <c r="B2950" s="8" t="s">
-        <v>4962</v>
+        <v>4958</v>
       </c>
       <c r="C2950" s="8" t="s">
-        <v>4963</v>
+        <v>4959</v>
       </c>
       <c r="D2950" s="4"/>
       <c r="E2950" s="1"/>
@@ -54800,10 +54800,10 @@
         <v>2951</v>
       </c>
       <c r="B2951" s="8" t="s">
-        <v>4967</v>
+        <v>4963</v>
       </c>
       <c r="C2951" s="8" t="s">
-        <v>4968</v>
+        <v>4964</v>
       </c>
       <c r="D2951" s="4"/>
       <c r="E2951" s="1"/>
